--- a/Plantilla - Etiqueta.xlsx
+++ b/Plantilla - Etiqueta.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\Enaex\Control de Calidad\Señaléticas, etiquetas, fichas\Plantilla - Etiqueta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F17FFD1-B3B0-4DA7-B5D1-46E9820B4709}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748625E-BAAB-46D3-84A8-E729E42E12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D0BE2A3-0F6F-4A05-8D53-E6F92CBCFC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja3" sheetId="3" r:id="rId2"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,25 +37,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+  <si>
+    <t>Explosivo Sensible</t>
+  </si>
+  <si>
+    <t>Explosivo NO Sensible</t>
+  </si>
+  <si>
+    <t>Inflamable</t>
+  </si>
+  <si>
+    <t>Oxidante</t>
+  </si>
+  <si>
+    <t>Gas Presurizado Inerte</t>
+  </si>
+  <si>
+    <t>Gas Presurizado Comburente</t>
+  </si>
+  <si>
+    <t>Gas Presurizado Inflamable</t>
+  </si>
+  <si>
+    <t>Corrosivo</t>
+  </si>
+  <si>
+    <t>Tóxico</t>
+  </si>
+  <si>
+    <t>Irritante</t>
+  </si>
+  <si>
+    <t>Carcinógeno</t>
+  </si>
+  <si>
+    <t>Peligroso para el ambiente</t>
+  </si>
+  <si>
+    <t>GHS01</t>
+  </si>
+  <si>
+    <t>GHS02</t>
+  </si>
+  <si>
+    <t>GHS03</t>
+  </si>
+  <si>
+    <t>GHS04</t>
+  </si>
+  <si>
+    <t>GHS05</t>
+  </si>
+  <si>
+    <t>GHS06</t>
+  </si>
+  <si>
+    <t>GHS07</t>
+  </si>
+  <si>
+    <t>GHS08</t>
+  </si>
+  <si>
+    <t>GHS09</t>
+  </si>
+  <si>
+    <t>Peligroso para el Ambiente</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ExplosivoSensible</t>
+  </si>
+  <si>
+    <t>ExplosivoNOSensible</t>
+  </si>
+  <si>
+    <t>GasPresurizadoInerte</t>
+  </si>
+  <si>
+    <t>GasPresurizadoComburente</t>
+  </si>
+  <si>
+    <t>GasPresurizadoInflamable</t>
+  </si>
+  <si>
+    <t>PeligrosoparaelAmbiente</t>
+  </si>
+  <si>
+    <t>GHS01-ExplosivoSensible</t>
+  </si>
+  <si>
+    <t>GHS01-ExplosivoNOSensible</t>
+  </si>
+  <si>
+    <t>GHS02-Inflamable</t>
+  </si>
+  <si>
+    <t>GHS03-Oxidante</t>
+  </si>
+  <si>
+    <t>GHS04-GasPresurizadoInflamable</t>
+  </si>
+  <si>
+    <t>GHS05-Corrosivo</t>
+  </si>
+  <si>
+    <t>GHS06-Tóxico</t>
+  </si>
+  <si>
+    <t>GHS07-Irritante</t>
+  </si>
+  <si>
+    <t>GHS08-Carcinógeno</t>
+  </si>
+  <si>
+    <t>GHS09-PeligrosoparaelAmbiente</t>
+  </si>
+  <si>
+    <t>GHS04-GasPresurizadoInerte</t>
+  </si>
+  <si>
+    <t>GHS04-GasPresurizadoComburente</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -68,10 +221,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -118,8 +287,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="1722782" y="187487"/>
-          <a:ext cx="4294084" cy="3842321"/>
+          <a:off x="1722782" y="185289"/>
+          <a:ext cx="4294084" cy="3796161"/>
           <a:chOff x="1742489" y="183931"/>
           <a:chExt cx="4343537" cy="3862552"/>
         </a:xfrm>
@@ -2013,6 +2182,1475 @@
         <a:xfrm>
           <a:off x="10325926" y="4630616"/>
           <a:ext cx="798934" cy="966329"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagen 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47D8929C-F557-F2B2-0C9A-FA5939C05795}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="781050" y="200025"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagen 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9EE962C-4332-468C-9046-B6DF6457900A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2495550" y="219075"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>781050</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Imagen 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{709F5EF4-451C-10AC-EB0D-4C32590ABA01}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4171950" y="295275"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Imagen 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B04E0429-B7C9-45B2-8A34-993C22B0F1A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5867400" y="314325"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5E7AF4F-D159-9632-2D27-2E464792F663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7543800" y="361950"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Imagen 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD45059B-4971-A5A0-E6E9-60624CD45E44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9220200" y="361950"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Imagen 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3CD95E83-1C17-4D4F-2823-D6E26EDFC22C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="838200" y="2714625"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Imagen 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B769E59-EB0D-0C9D-FCA9-AB813C7663C3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2514600" y="2714625"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Imagen 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1D443055-2C18-8C75-0BD4-8F5CBCB1C595}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5972175" y="2714625"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Imagen 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCD56CFB-07F4-CD95-6D53-351EB7E32DA5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9372600" y="2695575"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Imagen 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EFB7BEE7-707B-0995-4CA3-2E13BCB2DC88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4257675" y="2714625"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Imagen 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7792609-8A4C-31A6-34CE-5FB5E8FE1599}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7686675" y="2752725"/>
+          <a:ext cx="1638300" cy="2000250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152985</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67101</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>164192</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130639</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1" descr="GHS01 -Bomba Explotando - Explosivo.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B80F4C-403B-4621-ABDE-781B02F87551}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152985" y="67101"/>
+          <a:ext cx="1344707" cy="1397038"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>117923</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>3571</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Imagen 12" descr="GHS02 -Llama - Inflamable">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B283C11F-50EF-C8F7-F9A3-0CEB8C13ACE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3581559" y="67600"/>
+          <a:ext cx="1271103" cy="1274814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>152985</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>109958</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1266266" cy="1318597"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Imagen 11" descr="GHS01 -Bomba Explotando - Explosivo.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71693FA2-C6A5-461E-A898-D0D6E27CC1DA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="152985" y="2014958"/>
+          <a:ext cx="1266266" cy="1318597"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>138240</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>70656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>11664</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Imagen 31" descr="GHS04 -Botella de Gas - Gas Presurizado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37EE480C-5D86-4ABE-95C4-7D20CFC0C234}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10529149" y="70656"/>
+          <a:ext cx="1258879" cy="1268701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>149422</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>136106</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>35069</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>16952</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Imagen 30" descr="GHS03 -Llama sobre círculo - Oxidante">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF7135D-FCDB-468A-A5E1-97F1A41646A7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3613058" y="2041106"/>
+          <a:ext cx="1271102" cy="1266301"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>138577</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>27935</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Imagen 33" descr="GHS06 -Calavera y Tibias Cruzadas - Veneno o peligro de muerte.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0ABE9824-2238-43BA-8466-3C67E07CF873}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="13993122" y="67600"/>
+          <a:ext cx="1274813" cy="1274814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>60</xdr:col>
+      <xdr:colOff>149565</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>68</xdr:col>
+      <xdr:colOff>32811</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Imagen 32" descr="GHS05 -Corrosión - Corrosivo.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFB44B9A-2D0D-4F9C-9F08-11F54FE1C43E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10540474" y="2036850"/>
+          <a:ext cx="1268701" cy="1274813"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>154845</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>67599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>44204</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>130141</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35" descr="undefined">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B9EB4F5-6DBC-4F71-87D4-E485B67758CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="18084257" y="67599"/>
+          <a:ext cx="1323712" cy="1317601"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>80</xdr:col>
+      <xdr:colOff>148437</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>88</xdr:col>
+      <xdr:colOff>37795</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34" descr="GHS07 -Signo de Exclamación - Irritante.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D2FB9776-3DEB-48B3-80EB-7939EF04CA67}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="14002982" y="2036849"/>
+          <a:ext cx="1274813" cy="1274814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>130483</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>70656</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>11328</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>127084</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Imagen 37" descr="GHS04 -Botella de Gas - Gas Presurizado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78899157-53B7-47BC-A08B-D86784F73EEE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7057756" y="70656"/>
+          <a:ext cx="1266299" cy="1268701"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>100</xdr:col>
+      <xdr:colOff>153419</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>131849</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>108</xdr:col>
+      <xdr:colOff>42778</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>21208</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Imagen 36" descr="GHS09 -Medio Ambiente - Dañino para el ambiente.">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFE3CED9-FEDA-4DE2-AAF1-A0C11DA209D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="17471601" y="2036849"/>
+          <a:ext cx="1274813" cy="1274814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>150694</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>137962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>33940</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>15096</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="39" name="Imagen 38" descr="GHS04 -Botella de Gas - Gas Presurizado">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{68544F43-1820-43BF-AC70-1817FD683C34}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7077967" y="2042962"/>
+          <a:ext cx="1268700" cy="1262589"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2333,8 +3971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85CF536-D54F-46A2-A75B-6FBD524C5F35}">
   <dimension ref="G2:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L17" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="W25" sqref="W25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2703,4 +4341,1883 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5F0B5-81B9-4744-AE08-E79E83187B3B}">
+  <dimension ref="B30:AT41"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N41" sqref="N41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="30" spans="2:46" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" t="s">
+        <v>22</v>
+      </c>
+      <c r="D30" t="s">
+        <v>0</v>
+      </c>
+      <c r="F30" t="s">
+        <v>23</v>
+      </c>
+      <c r="H30" t="str">
+        <f>+B30&amp;C30&amp;F30</f>
+        <v>GHS01-ExplosivoSensible</v>
+      </c>
+      <c r="K30" t="s">
+        <v>29</v>
+      </c>
+      <c r="N30" t="str">
+        <f>+B30&amp;C30&amp;D30</f>
+        <v>GHS01-Explosivo Sensible</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD30" t="s">
+        <v>16</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>17</v>
+      </c>
+      <c r="AL30" t="s">
+        <v>18</v>
+      </c>
+      <c r="AP30" t="s">
+        <v>19</v>
+      </c>
+      <c r="AT30" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" t="s">
+        <v>22</v>
+      </c>
+      <c r="D31" t="s">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>24</v>
+      </c>
+      <c r="H31" t="str">
+        <f>+B31&amp;C31&amp;F31</f>
+        <v>GHS01-ExplosivoNOSensible</v>
+      </c>
+      <c r="K31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" ref="N31:N41" si="0">+B31&amp;C31&amp;D31</f>
+        <v>GHS01-Explosivo NO Sensible</v>
+      </c>
+    </row>
+    <row r="32" spans="2:46" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" t="s">
+        <v>22</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2</v>
+      </c>
+      <c r="F32" t="s">
+        <v>2</v>
+      </c>
+      <c r="H32" t="str">
+        <f>+B32&amp;C32&amp;F32</f>
+        <v>GHS02-Inflamable</v>
+      </c>
+      <c r="K32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS02-Inflamable</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>3</v>
+      </c>
+      <c r="H33" t="str">
+        <f>+B33&amp;C33&amp;F33</f>
+        <v>GHS03-Oxidante</v>
+      </c>
+      <c r="K33" t="s">
+        <v>32</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS03-Oxidante</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>22</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>25</v>
+      </c>
+      <c r="H34" t="str">
+        <f>+B34&amp;C34&amp;F34</f>
+        <v>GHS04-GasPresurizadoInerte</v>
+      </c>
+      <c r="K34" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS04-Gas Presurizado Inerte</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" t="s">
+        <v>22</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="F35" t="s">
+        <v>26</v>
+      </c>
+      <c r="H35" t="str">
+        <f>+B35&amp;C35&amp;F35</f>
+        <v>GHS04-GasPresurizadoComburente</v>
+      </c>
+      <c r="K35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS04-Gas Presurizado Comburente</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" t="s">
+        <v>22</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="F36" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" t="str">
+        <f>+B36&amp;C36&amp;F36</f>
+        <v>GHS04-GasPresurizadoInflamable</v>
+      </c>
+      <c r="K36" t="s">
+        <v>33</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS04-Gas Presurizado Inflamable</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" t="s">
+        <v>22</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>7</v>
+      </c>
+      <c r="H37" t="str">
+        <f>+B37&amp;C37&amp;F37</f>
+        <v>GHS05-Corrosivo</v>
+      </c>
+      <c r="K37" t="s">
+        <v>34</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS05-Corrosivo</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" t="s">
+        <v>8</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+      <c r="H38" t="str">
+        <f>+B38&amp;C38&amp;F38</f>
+        <v>GHS06-Tóxico</v>
+      </c>
+      <c r="K38" t="s">
+        <v>35</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS06-Tóxico</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" t="s">
+        <v>9</v>
+      </c>
+      <c r="H39" t="str">
+        <f>+B39&amp;C39&amp;F39</f>
+        <v>GHS07-Irritante</v>
+      </c>
+      <c r="K39" t="s">
+        <v>36</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS07-Irritante</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" t="str">
+        <f>+B40&amp;C40&amp;F40</f>
+        <v>GHS08-Carcinógeno</v>
+      </c>
+      <c r="K40" t="s">
+        <v>37</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS08-Carcinógeno</v>
+      </c>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>20</v>
+      </c>
+      <c r="C41" t="s">
+        <v>22</v>
+      </c>
+      <c r="D41" t="s">
+        <v>21</v>
+      </c>
+      <c r="F41" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" t="str">
+        <f>+B41&amp;C41&amp;F41</f>
+        <v>GHS09-PeligrosoparaelAmbiente</v>
+      </c>
+      <c r="K41" t="s">
+        <v>38</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="0"/>
+        <v>GHS09-Peligroso para el Ambiente</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B30:B89">
+    <sortCondition ref="B30:B89"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AF7BF5E-FA2A-4C3A-AC3C-61670E0E5361}">
+  <dimension ref="A1:DE47"/>
+  <sheetViews>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="CW1" sqref="CW1:DE11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="2.375" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="U1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
+      <c r="AB1" s="2"/>
+      <c r="AC1" s="2"/>
+      <c r="AO1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="AP1" s="4"/>
+      <c r="AQ1" s="4"/>
+      <c r="AR1" s="4"/>
+      <c r="AS1" s="4"/>
+      <c r="AT1" s="4"/>
+      <c r="AU1" s="4"/>
+      <c r="AV1" s="4"/>
+      <c r="AW1" s="4"/>
+      <c r="BI1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="BJ1" s="4"/>
+      <c r="BK1" s="4"/>
+      <c r="BL1" s="4"/>
+      <c r="BM1" s="4"/>
+      <c r="BN1" s="4"/>
+      <c r="BO1" s="4"/>
+      <c r="BP1" s="4"/>
+      <c r="BQ1" s="4"/>
+      <c r="CC1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="CD1" s="2"/>
+      <c r="CE1" s="2"/>
+      <c r="CF1" s="2"/>
+      <c r="CG1" s="2"/>
+      <c r="CH1" s="2"/>
+      <c r="CI1" s="2"/>
+      <c r="CJ1" s="2"/>
+      <c r="CK1" s="2"/>
+      <c r="CW1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="CX1" s="2"/>
+      <c r="CY1" s="2"/>
+      <c r="CZ1" s="2"/>
+      <c r="DA1" s="2"/>
+      <c r="DB1" s="2"/>
+      <c r="DC1" s="2"/>
+      <c r="DD1" s="2"/>
+      <c r="DE1" s="2"/>
+    </row>
+    <row r="2" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
+      <c r="AB2" s="2"/>
+      <c r="AC2" s="2"/>
+      <c r="AO2" s="4"/>
+      <c r="AP2" s="4"/>
+      <c r="AQ2" s="4"/>
+      <c r="AR2" s="4"/>
+      <c r="AS2" s="4"/>
+      <c r="AT2" s="4"/>
+      <c r="AU2" s="4"/>
+      <c r="AV2" s="4"/>
+      <c r="AW2" s="4"/>
+      <c r="BI2" s="4"/>
+      <c r="BJ2" s="4"/>
+      <c r="BK2" s="4"/>
+      <c r="BL2" s="4"/>
+      <c r="BM2" s="4"/>
+      <c r="BN2" s="4"/>
+      <c r="BO2" s="4"/>
+      <c r="BP2" s="4"/>
+      <c r="BQ2" s="4"/>
+      <c r="CC2" s="2"/>
+      <c r="CD2" s="2"/>
+      <c r="CE2" s="2"/>
+      <c r="CF2" s="2"/>
+      <c r="CG2" s="2"/>
+      <c r="CH2" s="2"/>
+      <c r="CI2" s="2"/>
+      <c r="CJ2" s="2"/>
+      <c r="CK2" s="2"/>
+      <c r="CW2" s="2"/>
+      <c r="CX2" s="2"/>
+      <c r="CY2" s="2"/>
+      <c r="CZ2" s="2"/>
+      <c r="DA2" s="2"/>
+      <c r="DB2" s="2"/>
+      <c r="DC2" s="2"/>
+      <c r="DD2" s="2"/>
+      <c r="DE2" s="2"/>
+    </row>
+    <row r="3" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+      <c r="BK3" s="4"/>
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="4"/>
+      <c r="BP3" s="4"/>
+      <c r="BQ3" s="4"/>
+      <c r="CC3" s="2"/>
+      <c r="CD3" s="2"/>
+      <c r="CE3" s="2"/>
+      <c r="CF3" s="2"/>
+      <c r="CG3" s="2"/>
+      <c r="CH3" s="2"/>
+      <c r="CI3" s="2"/>
+      <c r="CJ3" s="2"/>
+      <c r="CK3" s="2"/>
+      <c r="CW3" s="2"/>
+      <c r="CX3" s="2"/>
+      <c r="CY3" s="2"/>
+      <c r="CZ3" s="2"/>
+      <c r="DA3" s="2"/>
+      <c r="DB3" s="2"/>
+      <c r="DC3" s="2"/>
+      <c r="DD3" s="2"/>
+      <c r="DE3" s="2"/>
+    </row>
+    <row r="4" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="U4" s="2"/>
+      <c r="V4" s="2"/>
+      <c r="W4" s="2"/>
+      <c r="X4" s="2"/>
+      <c r="Y4" s="2"/>
+      <c r="Z4" s="2"/>
+      <c r="AA4" s="2"/>
+      <c r="AB4" s="2"/>
+      <c r="AC4" s="2"/>
+      <c r="AO4" s="4"/>
+      <c r="AP4" s="4"/>
+      <c r="AQ4" s="4"/>
+      <c r="AR4" s="4"/>
+      <c r="AS4" s="4"/>
+      <c r="AT4" s="4"/>
+      <c r="AU4" s="4"/>
+      <c r="AV4" s="4"/>
+      <c r="AW4" s="4"/>
+      <c r="BI4" s="4"/>
+      <c r="BJ4" s="4"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="4"/>
+      <c r="BP4" s="4"/>
+      <c r="BQ4" s="4"/>
+      <c r="CC4" s="2"/>
+      <c r="CD4" s="2"/>
+      <c r="CE4" s="2"/>
+      <c r="CF4" s="2"/>
+      <c r="CG4" s="2"/>
+      <c r="CH4" s="2"/>
+      <c r="CI4" s="2"/>
+      <c r="CJ4" s="2"/>
+      <c r="CK4" s="2"/>
+      <c r="CW4" s="2"/>
+      <c r="CX4" s="2"/>
+      <c r="CY4" s="2"/>
+      <c r="CZ4" s="2"/>
+      <c r="DA4" s="2"/>
+      <c r="DB4" s="2"/>
+      <c r="DC4" s="2"/>
+      <c r="DD4" s="2"/>
+      <c r="DE4" s="2"/>
+    </row>
+    <row r="5" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AB5" s="2"/>
+      <c r="AC5" s="2"/>
+      <c r="AO5" s="4"/>
+      <c r="AP5" s="4"/>
+      <c r="AQ5" s="4"/>
+      <c r="AR5" s="4"/>
+      <c r="AS5" s="4"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="CC5" s="2"/>
+      <c r="CD5" s="2"/>
+      <c r="CE5" s="2"/>
+      <c r="CF5" s="2"/>
+      <c r="CG5" s="2"/>
+      <c r="CH5" s="2"/>
+      <c r="CI5" s="2"/>
+      <c r="CJ5" s="2"/>
+      <c r="CK5" s="2"/>
+      <c r="CW5" s="2"/>
+      <c r="CX5" s="2"/>
+      <c r="CY5" s="2"/>
+      <c r="CZ5" s="2"/>
+      <c r="DA5" s="2"/>
+      <c r="DB5" s="2"/>
+      <c r="DC5" s="2"/>
+      <c r="DD5" s="2"/>
+      <c r="DE5" s="2"/>
+    </row>
+    <row r="6" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AO6" s="4"/>
+      <c r="AP6" s="4"/>
+      <c r="AQ6" s="4"/>
+      <c r="AR6" s="4"/>
+      <c r="AS6" s="4"/>
+      <c r="AT6" s="4"/>
+      <c r="AU6" s="4"/>
+      <c r="AV6" s="4"/>
+      <c r="AW6" s="4"/>
+      <c r="BI6" s="4"/>
+      <c r="BJ6" s="4"/>
+      <c r="BK6" s="4"/>
+      <c r="BL6" s="4"/>
+      <c r="BM6" s="4"/>
+      <c r="BN6" s="4"/>
+      <c r="BO6" s="4"/>
+      <c r="BP6" s="4"/>
+      <c r="BQ6" s="4"/>
+      <c r="CC6" s="2"/>
+      <c r="CD6" s="2"/>
+      <c r="CE6" s="2"/>
+      <c r="CF6" s="2"/>
+      <c r="CG6" s="2"/>
+      <c r="CH6" s="2"/>
+      <c r="CI6" s="2"/>
+      <c r="CJ6" s="2"/>
+      <c r="CK6" s="2"/>
+      <c r="CW6" s="2"/>
+      <c r="CX6" s="2"/>
+      <c r="CY6" s="2"/>
+      <c r="CZ6" s="2"/>
+      <c r="DA6" s="2"/>
+      <c r="DB6" s="2"/>
+      <c r="DC6" s="2"/>
+      <c r="DD6" s="2"/>
+      <c r="DE6" s="2"/>
+    </row>
+    <row r="7" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AO7" s="4"/>
+      <c r="AP7" s="4"/>
+      <c r="AQ7" s="4"/>
+      <c r="AR7" s="4"/>
+      <c r="AS7" s="4"/>
+      <c r="AT7" s="4"/>
+      <c r="AU7" s="4"/>
+      <c r="AV7" s="4"/>
+      <c r="AW7" s="4"/>
+      <c r="BI7" s="4"/>
+      <c r="BJ7" s="4"/>
+      <c r="BK7" s="4"/>
+      <c r="BL7" s="4"/>
+      <c r="BM7" s="4"/>
+      <c r="BN7" s="4"/>
+      <c r="BO7" s="4"/>
+      <c r="BP7" s="4"/>
+      <c r="BQ7" s="4"/>
+      <c r="CC7" s="2"/>
+      <c r="CD7" s="2"/>
+      <c r="CE7" s="2"/>
+      <c r="CF7" s="2"/>
+      <c r="CG7" s="2"/>
+      <c r="CH7" s="2"/>
+      <c r="CI7" s="2"/>
+      <c r="CJ7" s="2"/>
+      <c r="CK7" s="2"/>
+      <c r="CW7" s="2"/>
+      <c r="CX7" s="2"/>
+      <c r="CY7" s="2"/>
+      <c r="CZ7" s="2"/>
+      <c r="DA7" s="2"/>
+      <c r="DB7" s="2"/>
+      <c r="DC7" s="2"/>
+      <c r="DD7" s="2"/>
+      <c r="DE7" s="2"/>
+    </row>
+    <row r="8" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AO8" s="4"/>
+      <c r="AP8" s="4"/>
+      <c r="AQ8" s="4"/>
+      <c r="AR8" s="4"/>
+      <c r="AS8" s="4"/>
+      <c r="AT8" s="4"/>
+      <c r="AU8" s="4"/>
+      <c r="AV8" s="4"/>
+      <c r="AW8" s="4"/>
+      <c r="BI8" s="4"/>
+      <c r="BJ8" s="4"/>
+      <c r="BK8" s="4"/>
+      <c r="BL8" s="4"/>
+      <c r="BM8" s="4"/>
+      <c r="BN8" s="4"/>
+      <c r="BO8" s="4"/>
+      <c r="BP8" s="4"/>
+      <c r="BQ8" s="4"/>
+      <c r="CC8" s="2"/>
+      <c r="CD8" s="2"/>
+      <c r="CE8" s="2"/>
+      <c r="CF8" s="2"/>
+      <c r="CG8" s="2"/>
+      <c r="CH8" s="2"/>
+      <c r="CI8" s="2"/>
+      <c r="CJ8" s="2"/>
+      <c r="CK8" s="2"/>
+      <c r="CW8" s="2"/>
+      <c r="CX8" s="2"/>
+      <c r="CY8" s="2"/>
+      <c r="CZ8" s="2"/>
+      <c r="DA8" s="2"/>
+      <c r="DB8" s="2"/>
+      <c r="DC8" s="2"/>
+      <c r="DD8" s="2"/>
+      <c r="DE8" s="2"/>
+    </row>
+    <row r="9" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AB9" s="2"/>
+      <c r="AC9" s="2"/>
+      <c r="AO9" s="4"/>
+      <c r="AP9" s="4"/>
+      <c r="AQ9" s="4"/>
+      <c r="AR9" s="4"/>
+      <c r="AS9" s="4"/>
+      <c r="AT9" s="4"/>
+      <c r="AU9" s="4"/>
+      <c r="AV9" s="4"/>
+      <c r="AW9" s="4"/>
+      <c r="BI9" s="4"/>
+      <c r="BJ9" s="4"/>
+      <c r="BK9" s="4"/>
+      <c r="BL9" s="4"/>
+      <c r="BM9" s="4"/>
+      <c r="BN9" s="4"/>
+      <c r="BO9" s="4"/>
+      <c r="BP9" s="4"/>
+      <c r="BQ9" s="4"/>
+      <c r="CC9" s="2"/>
+      <c r="CD9" s="2"/>
+      <c r="CE9" s="2"/>
+      <c r="CF9" s="2"/>
+      <c r="CG9" s="2"/>
+      <c r="CH9" s="2"/>
+      <c r="CI9" s="2"/>
+      <c r="CJ9" s="2"/>
+      <c r="CK9" s="2"/>
+      <c r="CW9" s="2"/>
+      <c r="CX9" s="2"/>
+      <c r="CY9" s="2"/>
+      <c r="CZ9" s="2"/>
+      <c r="DA9" s="2"/>
+      <c r="DB9" s="2"/>
+      <c r="DC9" s="2"/>
+      <c r="DD9" s="2"/>
+      <c r="DE9" s="2"/>
+    </row>
+    <row r="10" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AB10" s="2"/>
+      <c r="AC10" s="2"/>
+      <c r="AO10" s="4"/>
+      <c r="AP10" s="4"/>
+      <c r="AQ10" s="4"/>
+      <c r="AR10" s="4"/>
+      <c r="AS10" s="4"/>
+      <c r="AT10" s="4"/>
+      <c r="AU10" s="4"/>
+      <c r="AV10" s="4"/>
+      <c r="AW10" s="4"/>
+      <c r="BI10" s="4"/>
+      <c r="BJ10" s="4"/>
+      <c r="BK10" s="4"/>
+      <c r="BL10" s="4"/>
+      <c r="BM10" s="4"/>
+      <c r="BN10" s="4"/>
+      <c r="BO10" s="4"/>
+      <c r="BP10" s="4"/>
+      <c r="BQ10" s="4"/>
+      <c r="CC10" s="2"/>
+      <c r="CD10" s="2"/>
+      <c r="CE10" s="2"/>
+      <c r="CF10" s="2"/>
+      <c r="CG10" s="2"/>
+      <c r="CH10" s="2"/>
+      <c r="CI10" s="2"/>
+      <c r="CJ10" s="2"/>
+      <c r="CK10" s="2"/>
+      <c r="CW10" s="2"/>
+      <c r="CX10" s="2"/>
+      <c r="CY10" s="2"/>
+      <c r="CZ10" s="2"/>
+      <c r="DA10" s="2"/>
+      <c r="DB10" s="2"/>
+      <c r="DC10" s="2"/>
+      <c r="DD10" s="2"/>
+      <c r="DE10" s="2"/>
+    </row>
+    <row r="11" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AO11" s="4"/>
+      <c r="AP11" s="4"/>
+      <c r="AQ11" s="4"/>
+      <c r="AR11" s="4"/>
+      <c r="AS11" s="4"/>
+      <c r="AT11" s="4"/>
+      <c r="AU11" s="4"/>
+      <c r="AV11" s="4"/>
+      <c r="AW11" s="4"/>
+      <c r="BI11" s="4"/>
+      <c r="BJ11" s="4"/>
+      <c r="BK11" s="4"/>
+      <c r="BL11" s="4"/>
+      <c r="BM11" s="4"/>
+      <c r="BN11" s="4"/>
+      <c r="BO11" s="4"/>
+      <c r="BP11" s="4"/>
+      <c r="BQ11" s="4"/>
+      <c r="CC11" s="2"/>
+      <c r="CD11" s="2"/>
+      <c r="CE11" s="2"/>
+      <c r="CF11" s="2"/>
+      <c r="CG11" s="2"/>
+      <c r="CH11" s="2"/>
+      <c r="CI11" s="2"/>
+      <c r="CJ11" s="2"/>
+      <c r="CK11" s="2"/>
+      <c r="CW11" s="2"/>
+      <c r="CX11" s="2"/>
+      <c r="CY11" s="2"/>
+      <c r="CZ11" s="2"/>
+      <c r="DA11" s="2"/>
+      <c r="DB11" s="2"/>
+      <c r="DC11" s="2"/>
+      <c r="DD11" s="2"/>
+      <c r="DE11" s="2"/>
+    </row>
+    <row r="12" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="U12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V12" s="2"/>
+      <c r="W12" s="2"/>
+      <c r="X12" s="2"/>
+      <c r="Y12" s="2"/>
+      <c r="Z12" s="2"/>
+      <c r="AA12" s="2"/>
+      <c r="AB12" s="2"/>
+      <c r="AC12" s="2"/>
+      <c r="AO12" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AP12" s="4"/>
+      <c r="AQ12" s="4"/>
+      <c r="AR12" s="4"/>
+      <c r="AS12" s="4"/>
+      <c r="AT12" s="4"/>
+      <c r="AU12" s="4"/>
+      <c r="AV12" s="4"/>
+      <c r="AW12" s="4"/>
+      <c r="BI12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="BJ12" s="2"/>
+      <c r="BK12" s="2"/>
+      <c r="BL12" s="2"/>
+      <c r="BM12" s="2"/>
+      <c r="BN12" s="2"/>
+      <c r="BO12" s="2"/>
+      <c r="BP12" s="2"/>
+      <c r="BQ12" s="2"/>
+      <c r="CC12" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="CD12" s="2"/>
+      <c r="CE12" s="2"/>
+      <c r="CF12" s="2"/>
+      <c r="CG12" s="2"/>
+      <c r="CH12" s="2"/>
+      <c r="CI12" s="2"/>
+      <c r="CJ12" s="2"/>
+      <c r="CK12" s="2"/>
+      <c r="CW12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="CX12" s="5"/>
+      <c r="CY12" s="5"/>
+      <c r="CZ12" s="5"/>
+      <c r="DA12" s="5"/>
+      <c r="DB12" s="5"/>
+      <c r="DC12" s="5"/>
+      <c r="DD12" s="5"/>
+      <c r="DE12" s="5"/>
+    </row>
+    <row r="13" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2"/>
+      <c r="X13" s="2"/>
+      <c r="Y13" s="2"/>
+      <c r="Z13" s="2"/>
+      <c r="AA13" s="2"/>
+      <c r="AB13" s="2"/>
+      <c r="AC13" s="2"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="BI13" s="2"/>
+      <c r="BJ13" s="2"/>
+      <c r="BK13" s="2"/>
+      <c r="BL13" s="2"/>
+      <c r="BM13" s="2"/>
+      <c r="BN13" s="2"/>
+      <c r="BO13" s="2"/>
+      <c r="BP13" s="2"/>
+      <c r="BQ13" s="2"/>
+      <c r="CC13" s="2"/>
+      <c r="CD13" s="2"/>
+      <c r="CE13" s="2"/>
+      <c r="CF13" s="2"/>
+      <c r="CG13" s="2"/>
+      <c r="CH13" s="2"/>
+      <c r="CI13" s="2"/>
+      <c r="CJ13" s="2"/>
+      <c r="CK13" s="2"/>
+      <c r="CW13" s="5"/>
+      <c r="CX13" s="5"/>
+      <c r="CY13" s="5"/>
+      <c r="CZ13" s="5"/>
+      <c r="DA13" s="5"/>
+      <c r="DB13" s="5"/>
+      <c r="DC13" s="5"/>
+      <c r="DD13" s="5"/>
+      <c r="DE13" s="5"/>
+    </row>
+    <row r="14" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="2"/>
+      <c r="X14" s="2"/>
+      <c r="Y14" s="2"/>
+      <c r="Z14" s="2"/>
+      <c r="AA14" s="2"/>
+      <c r="AB14" s="2"/>
+      <c r="AC14" s="2"/>
+      <c r="AO14" s="4"/>
+      <c r="AP14" s="4"/>
+      <c r="AQ14" s="4"/>
+      <c r="AR14" s="4"/>
+      <c r="AS14" s="4"/>
+      <c r="AT14" s="4"/>
+      <c r="AU14" s="4"/>
+      <c r="AV14" s="4"/>
+      <c r="AW14" s="4"/>
+      <c r="BI14" s="2"/>
+      <c r="BJ14" s="2"/>
+      <c r="BK14" s="2"/>
+      <c r="BL14" s="2"/>
+      <c r="BM14" s="2"/>
+      <c r="BN14" s="2"/>
+      <c r="BO14" s="2"/>
+      <c r="BP14" s="2"/>
+      <c r="BQ14" s="2"/>
+      <c r="CC14" s="2"/>
+      <c r="CD14" s="2"/>
+      <c r="CE14" s="2"/>
+      <c r="CF14" s="2"/>
+      <c r="CG14" s="2"/>
+      <c r="CH14" s="2"/>
+      <c r="CI14" s="2"/>
+      <c r="CJ14" s="2"/>
+      <c r="CK14" s="2"/>
+      <c r="CW14" s="5"/>
+      <c r="CX14" s="5"/>
+      <c r="CY14" s="5"/>
+      <c r="CZ14" s="5"/>
+      <c r="DA14" s="5"/>
+      <c r="DB14" s="5"/>
+      <c r="DC14" s="5"/>
+      <c r="DD14" s="5"/>
+      <c r="DE14" s="5"/>
+    </row>
+    <row r="15" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="2"/>
+      <c r="X15" s="2"/>
+      <c r="Y15" s="2"/>
+      <c r="Z15" s="2"/>
+      <c r="AA15" s="2"/>
+      <c r="AB15" s="2"/>
+      <c r="AC15" s="2"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="BI15" s="2"/>
+      <c r="BJ15" s="2"/>
+      <c r="BK15" s="2"/>
+      <c r="BL15" s="2"/>
+      <c r="BM15" s="2"/>
+      <c r="BN15" s="2"/>
+      <c r="BO15" s="2"/>
+      <c r="BP15" s="2"/>
+      <c r="BQ15" s="2"/>
+      <c r="CC15" s="2"/>
+      <c r="CD15" s="2"/>
+      <c r="CE15" s="2"/>
+      <c r="CF15" s="2"/>
+      <c r="CG15" s="2"/>
+      <c r="CH15" s="2"/>
+      <c r="CI15" s="2"/>
+      <c r="CJ15" s="2"/>
+      <c r="CK15" s="2"/>
+      <c r="CW15" s="5"/>
+      <c r="CX15" s="5"/>
+      <c r="CY15" s="5"/>
+      <c r="CZ15" s="5"/>
+      <c r="DA15" s="5"/>
+      <c r="DB15" s="5"/>
+      <c r="DC15" s="5"/>
+      <c r="DD15" s="5"/>
+      <c r="DE15" s="5"/>
+    </row>
+    <row r="16" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AB16" s="2"/>
+      <c r="AC16" s="2"/>
+      <c r="AG16" s="6"/>
+      <c r="AO16" s="4"/>
+      <c r="AP16" s="4"/>
+      <c r="AQ16" s="4"/>
+      <c r="AR16" s="4"/>
+      <c r="AS16" s="4"/>
+      <c r="AT16" s="4"/>
+      <c r="AU16" s="4"/>
+      <c r="AV16" s="4"/>
+      <c r="AW16" s="4"/>
+      <c r="BI16" s="2"/>
+      <c r="BJ16" s="2"/>
+      <c r="BK16" s="2"/>
+      <c r="BL16" s="2"/>
+      <c r="BM16" s="2"/>
+      <c r="BN16" s="2"/>
+      <c r="BO16" s="2"/>
+      <c r="BP16" s="2"/>
+      <c r="BQ16" s="2"/>
+      <c r="CC16" s="2"/>
+      <c r="CD16" s="2"/>
+      <c r="CE16" s="2"/>
+      <c r="CF16" s="2"/>
+      <c r="CG16" s="2"/>
+      <c r="CH16" s="2"/>
+      <c r="CI16" s="2"/>
+      <c r="CJ16" s="2"/>
+      <c r="CK16" s="2"/>
+      <c r="CW16" s="5"/>
+      <c r="CX16" s="5"/>
+      <c r="CY16" s="5"/>
+      <c r="CZ16" s="5"/>
+      <c r="DA16" s="5"/>
+      <c r="DB16" s="5"/>
+      <c r="DC16" s="5"/>
+      <c r="DD16" s="5"/>
+      <c r="DE16" s="5"/>
+    </row>
+    <row r="17" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="2"/>
+      <c r="X17" s="2"/>
+      <c r="Y17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AA17" s="2"/>
+      <c r="AB17" s="2"/>
+      <c r="AC17" s="2"/>
+      <c r="AI17" s="6"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="BI17" s="2"/>
+      <c r="BJ17" s="2"/>
+      <c r="BK17" s="2"/>
+      <c r="BL17" s="2"/>
+      <c r="BM17" s="2"/>
+      <c r="BN17" s="2"/>
+      <c r="BO17" s="2"/>
+      <c r="BP17" s="2"/>
+      <c r="BQ17" s="2"/>
+      <c r="CC17" s="2"/>
+      <c r="CD17" s="2"/>
+      <c r="CE17" s="2"/>
+      <c r="CF17" s="2"/>
+      <c r="CG17" s="2"/>
+      <c r="CH17" s="2"/>
+      <c r="CI17" s="2"/>
+      <c r="CJ17" s="2"/>
+      <c r="CK17" s="2"/>
+      <c r="CW17" s="5"/>
+      <c r="CX17" s="5"/>
+      <c r="CY17" s="5"/>
+      <c r="CZ17" s="5"/>
+      <c r="DA17" s="5"/>
+      <c r="DB17" s="5"/>
+      <c r="DC17" s="5"/>
+      <c r="DD17" s="5"/>
+      <c r="DE17" s="5"/>
+    </row>
+    <row r="18" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AB18" s="2"/>
+      <c r="AC18" s="2"/>
+      <c r="AO18" s="4"/>
+      <c r="AP18" s="4"/>
+      <c r="AQ18" s="4"/>
+      <c r="AR18" s="4"/>
+      <c r="AS18" s="4"/>
+      <c r="AT18" s="4"/>
+      <c r="AU18" s="4"/>
+      <c r="AV18" s="4"/>
+      <c r="AW18" s="4"/>
+      <c r="BI18" s="2"/>
+      <c r="BJ18" s="2"/>
+      <c r="BK18" s="2"/>
+      <c r="BL18" s="2"/>
+      <c r="BM18" s="2"/>
+      <c r="BN18" s="2"/>
+      <c r="BO18" s="2"/>
+      <c r="BP18" s="2"/>
+      <c r="BQ18" s="2"/>
+      <c r="CC18" s="2"/>
+      <c r="CD18" s="2"/>
+      <c r="CE18" s="2"/>
+      <c r="CF18" s="2"/>
+      <c r="CG18" s="2"/>
+      <c r="CH18" s="2"/>
+      <c r="CI18" s="2"/>
+      <c r="CJ18" s="2"/>
+      <c r="CK18" s="2"/>
+      <c r="CW18" s="5"/>
+      <c r="CX18" s="5"/>
+      <c r="CY18" s="5"/>
+      <c r="CZ18" s="5"/>
+      <c r="DA18" s="5"/>
+      <c r="DB18" s="5"/>
+      <c r="DC18" s="5"/>
+      <c r="DD18" s="5"/>
+      <c r="DE18" s="5"/>
+    </row>
+    <row r="19" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AO19" s="4"/>
+      <c r="AP19" s="4"/>
+      <c r="AQ19" s="4"/>
+      <c r="AR19" s="4"/>
+      <c r="AS19" s="4"/>
+      <c r="AT19" s="4"/>
+      <c r="AU19" s="4"/>
+      <c r="AV19" s="4"/>
+      <c r="AW19" s="4"/>
+      <c r="BI19" s="2"/>
+      <c r="BJ19" s="2"/>
+      <c r="BK19" s="2"/>
+      <c r="BL19" s="2"/>
+      <c r="BM19" s="2"/>
+      <c r="BN19" s="2"/>
+      <c r="BO19" s="2"/>
+      <c r="BP19" s="2"/>
+      <c r="BQ19" s="2"/>
+      <c r="CC19" s="2"/>
+      <c r="CD19" s="2"/>
+      <c r="CE19" s="2"/>
+      <c r="CF19" s="2"/>
+      <c r="CG19" s="2"/>
+      <c r="CH19" s="2"/>
+      <c r="CI19" s="2"/>
+      <c r="CJ19" s="2"/>
+      <c r="CK19" s="2"/>
+      <c r="CW19" s="5"/>
+      <c r="CX19" s="5"/>
+      <c r="CY19" s="5"/>
+      <c r="CZ19" s="5"/>
+      <c r="DA19" s="5"/>
+      <c r="DB19" s="5"/>
+      <c r="DC19" s="5"/>
+      <c r="DD19" s="5"/>
+      <c r="DE19" s="5"/>
+    </row>
+    <row r="20" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AB20" s="2"/>
+      <c r="AC20" s="2"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="BI20" s="2"/>
+      <c r="BJ20" s="2"/>
+      <c r="BK20" s="2"/>
+      <c r="BL20" s="2"/>
+      <c r="BM20" s="2"/>
+      <c r="BN20" s="2"/>
+      <c r="BO20" s="2"/>
+      <c r="BP20" s="2"/>
+      <c r="BQ20" s="2"/>
+      <c r="CC20" s="2"/>
+      <c r="CD20" s="2"/>
+      <c r="CE20" s="2"/>
+      <c r="CF20" s="2"/>
+      <c r="CG20" s="2"/>
+      <c r="CH20" s="2"/>
+      <c r="CI20" s="2"/>
+      <c r="CJ20" s="2"/>
+      <c r="CK20" s="2"/>
+      <c r="CW20" s="5"/>
+      <c r="CX20" s="5"/>
+      <c r="CY20" s="5"/>
+      <c r="CZ20" s="5"/>
+      <c r="DA20" s="5"/>
+      <c r="DB20" s="5"/>
+      <c r="DC20" s="5"/>
+      <c r="DD20" s="5"/>
+      <c r="DE20" s="5"/>
+    </row>
+    <row r="21" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AB21" s="2"/>
+      <c r="AC21" s="2"/>
+      <c r="AO21" s="4"/>
+      <c r="AP21" s="4"/>
+      <c r="AQ21" s="4"/>
+      <c r="AR21" s="4"/>
+      <c r="AS21" s="4"/>
+      <c r="AT21" s="4"/>
+      <c r="AU21" s="4"/>
+      <c r="AV21" s="4"/>
+      <c r="AW21" s="4"/>
+      <c r="BI21" s="2"/>
+      <c r="BJ21" s="2"/>
+      <c r="BK21" s="2"/>
+      <c r="BL21" s="2"/>
+      <c r="BM21" s="2"/>
+      <c r="BN21" s="2"/>
+      <c r="BO21" s="2"/>
+      <c r="BP21" s="2"/>
+      <c r="BQ21" s="2"/>
+      <c r="CC21" s="2"/>
+      <c r="CD21" s="2"/>
+      <c r="CE21" s="2"/>
+      <c r="CF21" s="2"/>
+      <c r="CG21" s="2"/>
+      <c r="CH21" s="2"/>
+      <c r="CI21" s="2"/>
+      <c r="CJ21" s="2"/>
+      <c r="CK21" s="2"/>
+      <c r="CW21" s="5"/>
+      <c r="CX21" s="5"/>
+      <c r="CY21" s="5"/>
+      <c r="CZ21" s="5"/>
+      <c r="DA21" s="5"/>
+      <c r="DB21" s="5"/>
+      <c r="DC21" s="5"/>
+      <c r="DD21" s="5"/>
+      <c r="DE21" s="5"/>
+    </row>
+    <row r="22" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
+      <c r="Y22" s="2"/>
+      <c r="Z22" s="2"/>
+      <c r="AA22" s="2"/>
+      <c r="AB22" s="2"/>
+      <c r="AC22" s="2"/>
+      <c r="AO22" s="4"/>
+      <c r="AP22" s="4"/>
+      <c r="AQ22" s="4"/>
+      <c r="AR22" s="4"/>
+      <c r="AS22" s="4"/>
+      <c r="AT22" s="4"/>
+      <c r="AU22" s="4"/>
+      <c r="AV22" s="4"/>
+      <c r="AW22" s="4"/>
+      <c r="BI22" s="2"/>
+      <c r="BJ22" s="2"/>
+      <c r="BK22" s="2"/>
+      <c r="BL22" s="2"/>
+      <c r="BM22" s="2"/>
+      <c r="BN22" s="2"/>
+      <c r="BO22" s="2"/>
+      <c r="BP22" s="2"/>
+      <c r="BQ22" s="2"/>
+      <c r="CC22" s="2"/>
+      <c r="CD22" s="2"/>
+      <c r="CE22" s="2"/>
+      <c r="CF22" s="2"/>
+      <c r="CG22" s="2"/>
+      <c r="CH22" s="2"/>
+      <c r="CI22" s="2"/>
+      <c r="CJ22" s="2"/>
+      <c r="CK22" s="2"/>
+      <c r="CW22" s="5"/>
+      <c r="CX22" s="5"/>
+      <c r="CY22" s="5"/>
+      <c r="CZ22" s="5"/>
+      <c r="DA22" s="5"/>
+      <c r="DB22" s="5"/>
+      <c r="DC22" s="5"/>
+      <c r="DD22" s="5"/>
+      <c r="DE22" s="5"/>
+    </row>
+    <row r="23" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="7"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="AD25" s="6"/>
+    </row>
+    <row r="26" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="7"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="7"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="7"/>
+      <c r="B30" s="7"/>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="7"/>
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
+    </row>
+    <row r="35" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="7"/>
+    </row>
+    <row r="36" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+    </row>
+    <row r="37" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+    </row>
+    <row r="38" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+    </row>
+    <row r="39" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+    </row>
+    <row r="40" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+    </row>
+    <row r="41" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+    </row>
+    <row r="42" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="N42" s="6"/>
+    </row>
+    <row r="43" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+    </row>
+    <row r="44" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="M44" s="6"/>
+    </row>
+    <row r="45" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CD45" s="6"/>
+    </row>
+    <row r="47" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z47" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="CW1:DE11"/>
+    <mergeCell ref="CW12:DE22"/>
+    <mergeCell ref="BI1:BQ11"/>
+    <mergeCell ref="BI12:BQ22"/>
+    <mergeCell ref="CC1:CK11"/>
+    <mergeCell ref="CC12:CK22"/>
+    <mergeCell ref="A12:I22"/>
+    <mergeCell ref="U1:AC11"/>
+    <mergeCell ref="U12:AC22"/>
+    <mergeCell ref="AO1:AW11"/>
+    <mergeCell ref="AO12:AW22"/>
+    <mergeCell ref="A1:I11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/Plantilla - Etiqueta.xlsx
+++ b/Plantilla - Etiqueta.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\usuario\OneDrive\Enaex\Control de Calidad\Señaléticas, etiquetas, fichas\Plantilla - Etiqueta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D748625E-BAAB-46D3-84A8-E729E42E12DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBEBC7B0-C839-4225-B0FF-50258FE3D666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{2D0BE2A3-0F6F-4A05-8D53-E6F92CBCFC5D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{2D0BE2A3-0F6F-4A05-8D53-E6F92CBCFC5D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="53">
   <si>
     <t>Explosivo Sensible</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Peligroso para el Ambiente</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>ExplosivoSensible</t>
   </si>
   <si>
@@ -160,6 +157,45 @@
   </si>
   <si>
     <t>GHS04-GasPresurizadoComburente</t>
+  </si>
+  <si>
+    <t>_</t>
+  </si>
+  <si>
+    <t>GHS01_Explosivo Sensible</t>
+  </si>
+  <si>
+    <t>GHS01_Explosivo NO Sensible</t>
+  </si>
+  <si>
+    <t>GHS02_Inflamable</t>
+  </si>
+  <si>
+    <t>GHS03_Oxidante</t>
+  </si>
+  <si>
+    <t>GHS04_Gas Presurizado Inerte</t>
+  </si>
+  <si>
+    <t>GHS04_Gas Presurizado Comburente</t>
+  </si>
+  <si>
+    <t>GHS04_Gas Presurizado Inflamable</t>
+  </si>
+  <si>
+    <t>GHS05_Corrosivo</t>
+  </si>
+  <si>
+    <t>GHS06_Tóxico</t>
+  </si>
+  <si>
+    <t>GHS07_Irritante</t>
+  </si>
+  <si>
+    <t>GHS08_Carcinógeno</t>
+  </si>
+  <si>
+    <t>GHS09_Peligroso para el Ambiente</t>
   </si>
 </sst>
 </file>
@@ -223,24 +259,24 @@
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3971,368 +4007,368 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A85CF536-D54F-46A2-A75B-6FBD524C5F35}">
   <dimension ref="G2:U22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X12" sqref="X12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.75" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
     </row>
     <row r="3" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
-      <c r="R3" s="1"/>
-      <c r="S3" s="1"/>
-      <c r="T3" s="1"/>
-      <c r="U3" s="1"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
     </row>
     <row r="4" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
-      <c r="R4" s="1"/>
-      <c r="S4" s="1"/>
-      <c r="T4" s="1"/>
-      <c r="U4" s="1"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
     </row>
     <row r="5" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
-      <c r="T5" s="1"/>
-      <c r="U5" s="1"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
     </row>
     <row r="6" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="4"/>
+      <c r="Q6" s="4"/>
+      <c r="R6" s="4"/>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
     </row>
     <row r="7" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+      <c r="N7" s="4"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="4"/>
+      <c r="Q7" s="4"/>
+      <c r="R7" s="4"/>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
     </row>
     <row r="8" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="4"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+      <c r="N8" s="4"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4"/>
+      <c r="Q8" s="4"/>
+      <c r="R8" s="4"/>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
     </row>
     <row r="9" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="4"/>
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4"/>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
     </row>
     <row r="10" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4"/>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
     </row>
     <row r="11" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="4"/>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="R12" s="4"/>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
     </row>
     <row r="13" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+      <c r="N14" s="4"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="4"/>
+      <c r="Q14" s="4"/>
+      <c r="R14" s="4"/>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
     </row>
     <row r="15" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
     </row>
     <row r="16" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="R16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
     </row>
     <row r="17" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="1"/>
-      <c r="K17" s="1"/>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="1"/>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="1"/>
-      <c r="S17" s="1"/>
-      <c r="T17" s="1"/>
-      <c r="U17" s="1"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
     </row>
     <row r="18" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="4"/>
+      <c r="Q18" s="4"/>
+      <c r="R18" s="4"/>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
     </row>
     <row r="19" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="J19" s="1"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="4"/>
+      <c r="Q19" s="4"/>
+      <c r="R19" s="4"/>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="N21" s="4"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="4"/>
+      <c r="Q21" s="4"/>
+      <c r="R21" s="4"/>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="7:21" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
-      <c r="K22" s="1"/>
-      <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="1"/>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="1"/>
-      <c r="S22" s="1"/>
-      <c r="T22" s="1"/>
-      <c r="U22" s="1"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+      <c r="N22" s="4"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="4"/>
+      <c r="Q22" s="4"/>
+      <c r="R22" s="4"/>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4345,10 +4381,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FA5F0B5-81B9-4744-AE08-E79E83187B3B}">
-  <dimension ref="B30:AT41"/>
+  <dimension ref="B30:AT54"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+    <sheetView tabSelected="1" topLeftCell="C40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4358,24 +4394,24 @@
         <v>12</v>
       </c>
       <c r="C30" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D30" t="s">
         <v>0</v>
       </c>
       <c r="F30" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H30" t="str">
-        <f>+B30&amp;C30&amp;F30</f>
-        <v>GHS01-ExplosivoSensible</v>
+        <f t="shared" ref="H30:H41" si="0">+B30&amp;C30&amp;F30</f>
+        <v>GHS01_ExplosivoSensible</v>
       </c>
       <c r="K30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N30" t="str">
         <f>+B30&amp;C30&amp;D30</f>
-        <v>GHS01-Explosivo Sensible</v>
+        <v>GHS01_Explosivo Sensible</v>
       </c>
       <c r="Z30" t="s">
         <v>15</v>
@@ -4401,24 +4437,24 @@
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
       </c>
       <c r="F31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H31" t="str">
-        <f>+B31&amp;C31&amp;F31</f>
-        <v>GHS01-ExplosivoNOSensible</v>
+        <f t="shared" si="0"/>
+        <v>GHS01_ExplosivoNOSensible</v>
       </c>
       <c r="K31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="N31" t="str">
-        <f t="shared" ref="N31:N41" si="0">+B31&amp;C31&amp;D31</f>
-        <v>GHS01-Explosivo NO Sensible</v>
+        <f t="shared" ref="N31:N41" si="1">+B31&amp;C31&amp;D31</f>
+        <v>GHS01_Explosivo NO Sensible</v>
       </c>
     </row>
     <row r="32" spans="2:46" x14ac:dyDescent="0.2">
@@ -4426,7 +4462,7 @@
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
         <v>2</v>
@@ -4435,15 +4471,15 @@
         <v>2</v>
       </c>
       <c r="H32" t="str">
-        <f>+B32&amp;C32&amp;F32</f>
-        <v>GHS02-Inflamable</v>
+        <f t="shared" si="0"/>
+        <v>GHS02_Inflamable</v>
       </c>
       <c r="K32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="N32" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS02-Inflamable</v>
+        <f t="shared" si="1"/>
+        <v>GHS02_Inflamable</v>
       </c>
     </row>
     <row r="33" spans="2:14" x14ac:dyDescent="0.2">
@@ -4451,7 +4487,7 @@
         <v>14</v>
       </c>
       <c r="C33" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
         <v>3</v>
@@ -4460,15 +4496,15 @@
         <v>3</v>
       </c>
       <c r="H33" t="str">
-        <f>+B33&amp;C33&amp;F33</f>
-        <v>GHS03-Oxidante</v>
+        <f t="shared" si="0"/>
+        <v>GHS03_Oxidante</v>
       </c>
       <c r="K33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N33" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS03-Oxidante</v>
+        <f t="shared" si="1"/>
+        <v>GHS03_Oxidante</v>
       </c>
     </row>
     <row r="34" spans="2:14" x14ac:dyDescent="0.2">
@@ -4476,24 +4512,24 @@
         <v>15</v>
       </c>
       <c r="C34" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="H34" t="str">
-        <f>+B34&amp;C34&amp;F34</f>
-        <v>GHS04-GasPresurizadoInerte</v>
+        <f t="shared" si="0"/>
+        <v>GHS04_GasPresurizadoInerte</v>
       </c>
       <c r="K34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N34" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS04-Gas Presurizado Inerte</v>
+        <f t="shared" si="1"/>
+        <v>GHS04_Gas Presurizado Inerte</v>
       </c>
     </row>
     <row r="35" spans="2:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4501,24 +4537,24 @@
         <v>15</v>
       </c>
       <c r="C35" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D35" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H35" t="str">
-        <f>+B35&amp;C35&amp;F35</f>
-        <v>GHS04-GasPresurizadoComburente</v>
+        <f t="shared" si="0"/>
+        <v>GHS04_GasPresurizadoComburente</v>
       </c>
       <c r="K35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N35" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS04-Gas Presurizado Comburente</v>
+        <f t="shared" si="1"/>
+        <v>GHS04_Gas Presurizado Comburente</v>
       </c>
     </row>
     <row r="36" spans="2:14" x14ac:dyDescent="0.2">
@@ -4526,24 +4562,24 @@
         <v>15</v>
       </c>
       <c r="C36" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D36" t="s">
         <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H36" t="str">
-        <f>+B36&amp;C36&amp;F36</f>
-        <v>GHS04-GasPresurizadoInflamable</v>
+        <f t="shared" si="0"/>
+        <v>GHS04_GasPresurizadoInflamable</v>
       </c>
       <c r="K36" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N36" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS04-Gas Presurizado Inflamable</v>
+        <f t="shared" si="1"/>
+        <v>GHS04_Gas Presurizado Inflamable</v>
       </c>
     </row>
     <row r="37" spans="2:14" x14ac:dyDescent="0.2">
@@ -4551,7 +4587,7 @@
         <v>16</v>
       </c>
       <c r="C37" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D37" t="s">
         <v>7</v>
@@ -4560,15 +4596,15 @@
         <v>7</v>
       </c>
       <c r="H37" t="str">
-        <f>+B37&amp;C37&amp;F37</f>
-        <v>GHS05-Corrosivo</v>
+        <f t="shared" si="0"/>
+        <v>GHS05_Corrosivo</v>
       </c>
       <c r="K37" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="N37" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS05-Corrosivo</v>
+        <f t="shared" si="1"/>
+        <v>GHS05_Corrosivo</v>
       </c>
     </row>
     <row r="38" spans="2:14" x14ac:dyDescent="0.2">
@@ -4576,7 +4612,7 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D38" t="s">
         <v>8</v>
@@ -4585,15 +4621,15 @@
         <v>8</v>
       </c>
       <c r="H38" t="str">
-        <f>+B38&amp;C38&amp;F38</f>
-        <v>GHS06-Tóxico</v>
+        <f t="shared" si="0"/>
+        <v>GHS06_Tóxico</v>
       </c>
       <c r="K38" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N38" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS06-Tóxico</v>
+        <f t="shared" si="1"/>
+        <v>GHS06_Tóxico</v>
       </c>
     </row>
     <row r="39" spans="2:14" x14ac:dyDescent="0.2">
@@ -4601,7 +4637,7 @@
         <v>18</v>
       </c>
       <c r="C39" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
         <v>9</v>
@@ -4610,15 +4646,15 @@
         <v>9</v>
       </c>
       <c r="H39" t="str">
-        <f>+B39&amp;C39&amp;F39</f>
-        <v>GHS07-Irritante</v>
+        <f t="shared" si="0"/>
+        <v>GHS07_Irritante</v>
       </c>
       <c r="K39" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="N39" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS07-Irritante</v>
+        <f t="shared" si="1"/>
+        <v>GHS07_Irritante</v>
       </c>
     </row>
     <row r="40" spans="2:14" x14ac:dyDescent="0.2">
@@ -4626,7 +4662,7 @@
         <v>19</v>
       </c>
       <c r="C40" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>10</v>
@@ -4635,15 +4671,15 @@
         <v>10</v>
       </c>
       <c r="H40" t="str">
-        <f>+B40&amp;C40&amp;F40</f>
-        <v>GHS08-Carcinógeno</v>
+        <f t="shared" si="0"/>
+        <v>GHS08_Carcinógeno</v>
       </c>
       <c r="K40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N40" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS08-Carcinógeno</v>
+        <f t="shared" si="1"/>
+        <v>GHS08_Carcinógeno</v>
       </c>
     </row>
     <row r="41" spans="2:14" x14ac:dyDescent="0.2">
@@ -4651,24 +4687,84 @@
         <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
       </c>
       <c r="F41" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H41" t="str">
-        <f>+B41&amp;C41&amp;F41</f>
-        <v>GHS09-PeligrosoparaelAmbiente</v>
+        <f t="shared" si="0"/>
+        <v>GHS09_PeligrosoparaelAmbiente</v>
       </c>
       <c r="K41" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="N41" t="str">
-        <f t="shared" si="0"/>
-        <v>GHS09-Peligroso para el Ambiente</v>
+        <f t="shared" si="1"/>
+        <v>GHS09_Peligroso para el Ambiente</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N44" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N45" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N47" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="N48" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N49" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N52" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N53" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="14:14" x14ac:dyDescent="0.2">
+      <c r="N54" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -4690,1532 +4786,1532 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="2.375" style="3"/>
+    <col min="1" max="16384" width="2.375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="U1" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
+      <c r="U1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AO1" s="4" t="s">
+      <c r="V1" s="5"/>
+      <c r="W1" s="5"/>
+      <c r="X1" s="5"/>
+      <c r="Y1" s="5"/>
+      <c r="Z1" s="5"/>
+      <c r="AA1" s="5"/>
+      <c r="AB1" s="5"/>
+      <c r="AC1" s="5"/>
+      <c r="AO1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AP1" s="4"/>
-      <c r="AQ1" s="4"/>
-      <c r="AR1" s="4"/>
-      <c r="AS1" s="4"/>
-      <c r="AT1" s="4"/>
-      <c r="AU1" s="4"/>
-      <c r="AV1" s="4"/>
-      <c r="AW1" s="4"/>
-      <c r="BI1" s="4" t="s">
+      <c r="AP1" s="7"/>
+      <c r="AQ1" s="7"/>
+      <c r="AR1" s="7"/>
+      <c r="AS1" s="7"/>
+      <c r="AT1" s="7"/>
+      <c r="AU1" s="7"/>
+      <c r="AV1" s="7"/>
+      <c r="AW1" s="7"/>
+      <c r="BI1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="BJ1" s="4"/>
-      <c r="BK1" s="4"/>
-      <c r="BL1" s="4"/>
-      <c r="BM1" s="4"/>
-      <c r="BN1" s="4"/>
-      <c r="BO1" s="4"/>
-      <c r="BP1" s="4"/>
-      <c r="BQ1" s="4"/>
-      <c r="CC1" s="2" t="s">
+      <c r="BJ1" s="7"/>
+      <c r="BK1" s="7"/>
+      <c r="BL1" s="7"/>
+      <c r="BM1" s="7"/>
+      <c r="BN1" s="7"/>
+      <c r="BO1" s="7"/>
+      <c r="BP1" s="7"/>
+      <c r="BQ1" s="7"/>
+      <c r="CC1" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="CD1" s="2"/>
-      <c r="CE1" s="2"/>
-      <c r="CF1" s="2"/>
-      <c r="CG1" s="2"/>
-      <c r="CH1" s="2"/>
-      <c r="CI1" s="2"/>
-      <c r="CJ1" s="2"/>
-      <c r="CK1" s="2"/>
-      <c r="CW1" s="2" t="s">
+      <c r="CD1" s="5"/>
+      <c r="CE1" s="5"/>
+      <c r="CF1" s="5"/>
+      <c r="CG1" s="5"/>
+      <c r="CH1" s="5"/>
+      <c r="CI1" s="5"/>
+      <c r="CJ1" s="5"/>
+      <c r="CK1" s="5"/>
+      <c r="CW1" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="CX1" s="2"/>
-      <c r="CY1" s="2"/>
-      <c r="CZ1" s="2"/>
-      <c r="DA1" s="2"/>
-      <c r="DB1" s="2"/>
-      <c r="DC1" s="2"/>
-      <c r="DD1" s="2"/>
-      <c r="DE1" s="2"/>
+      <c r="CX1" s="5"/>
+      <c r="CY1" s="5"/>
+      <c r="CZ1" s="5"/>
+      <c r="DA1" s="5"/>
+      <c r="DB1" s="5"/>
+      <c r="DC1" s="5"/>
+      <c r="DD1" s="5"/>
+      <c r="DE1" s="5"/>
     </row>
     <row r="2" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="U2" s="2"/>
-      <c r="V2" s="2"/>
-      <c r="W2" s="2"/>
-      <c r="X2" s="2"/>
-      <c r="Y2" s="2"/>
-      <c r="Z2" s="2"/>
-      <c r="AA2" s="2"/>
-      <c r="AB2" s="2"/>
-      <c r="AC2" s="2"/>
-      <c r="AO2" s="4"/>
-      <c r="AP2" s="4"/>
-      <c r="AQ2" s="4"/>
-      <c r="AR2" s="4"/>
-      <c r="AS2" s="4"/>
-      <c r="AT2" s="4"/>
-      <c r="AU2" s="4"/>
-      <c r="AV2" s="4"/>
-      <c r="AW2" s="4"/>
-      <c r="BI2" s="4"/>
-      <c r="BJ2" s="4"/>
-      <c r="BK2" s="4"/>
-      <c r="BL2" s="4"/>
-      <c r="BM2" s="4"/>
-      <c r="BN2" s="4"/>
-      <c r="BO2" s="4"/>
-      <c r="BP2" s="4"/>
-      <c r="BQ2" s="4"/>
-      <c r="CC2" s="2"/>
-      <c r="CD2" s="2"/>
-      <c r="CE2" s="2"/>
-      <c r="CF2" s="2"/>
-      <c r="CG2" s="2"/>
-      <c r="CH2" s="2"/>
-      <c r="CI2" s="2"/>
-      <c r="CJ2" s="2"/>
-      <c r="CK2" s="2"/>
-      <c r="CW2" s="2"/>
-      <c r="CX2" s="2"/>
-      <c r="CY2" s="2"/>
-      <c r="CZ2" s="2"/>
-      <c r="DA2" s="2"/>
-      <c r="DB2" s="2"/>
-      <c r="DC2" s="2"/>
-      <c r="DD2" s="2"/>
-      <c r="DE2" s="2"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AB2" s="5"/>
+      <c r="AC2" s="5"/>
+      <c r="AO2" s="7"/>
+      <c r="AP2" s="7"/>
+      <c r="AQ2" s="7"/>
+      <c r="AR2" s="7"/>
+      <c r="AS2" s="7"/>
+      <c r="AT2" s="7"/>
+      <c r="AU2" s="7"/>
+      <c r="AV2" s="7"/>
+      <c r="AW2" s="7"/>
+      <c r="BI2" s="7"/>
+      <c r="BJ2" s="7"/>
+      <c r="BK2" s="7"/>
+      <c r="BL2" s="7"/>
+      <c r="BM2" s="7"/>
+      <c r="BN2" s="7"/>
+      <c r="BO2" s="7"/>
+      <c r="BP2" s="7"/>
+      <c r="BQ2" s="7"/>
+      <c r="CC2" s="5"/>
+      <c r="CD2" s="5"/>
+      <c r="CE2" s="5"/>
+      <c r="CF2" s="5"/>
+      <c r="CG2" s="5"/>
+      <c r="CH2" s="5"/>
+      <c r="CI2" s="5"/>
+      <c r="CJ2" s="5"/>
+      <c r="CK2" s="5"/>
+      <c r="CW2" s="5"/>
+      <c r="CX2" s="5"/>
+      <c r="CY2" s="5"/>
+      <c r="CZ2" s="5"/>
+      <c r="DA2" s="5"/>
+      <c r="DB2" s="5"/>
+      <c r="DC2" s="5"/>
+      <c r="DD2" s="5"/>
+      <c r="DE2" s="5"/>
     </row>
     <row r="3" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AO3" s="4"/>
-      <c r="AP3" s="4"/>
-      <c r="AQ3" s="4"/>
-      <c r="AR3" s="4"/>
-      <c r="AS3" s="4"/>
-      <c r="AT3" s="4"/>
-      <c r="AU3" s="4"/>
-      <c r="AV3" s="4"/>
-      <c r="AW3" s="4"/>
-      <c r="BI3" s="4"/>
-      <c r="BJ3" s="4"/>
-      <c r="BK3" s="4"/>
-      <c r="BL3" s="4"/>
-      <c r="BM3" s="4"/>
-      <c r="BN3" s="4"/>
-      <c r="BO3" s="4"/>
-      <c r="BP3" s="4"/>
-      <c r="BQ3" s="4"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2"/>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CW3" s="2"/>
-      <c r="CX3" s="2"/>
-      <c r="CY3" s="2"/>
-      <c r="CZ3" s="2"/>
-      <c r="DA3" s="2"/>
-      <c r="DB3" s="2"/>
-      <c r="DC3" s="2"/>
-      <c r="DD3" s="2"/>
-      <c r="DE3" s="2"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+      <c r="AB3" s="5"/>
+      <c r="AC3" s="5"/>
+      <c r="AO3" s="7"/>
+      <c r="AP3" s="7"/>
+      <c r="AQ3" s="7"/>
+      <c r="AR3" s="7"/>
+      <c r="AS3" s="7"/>
+      <c r="AT3" s="7"/>
+      <c r="AU3" s="7"/>
+      <c r="AV3" s="7"/>
+      <c r="AW3" s="7"/>
+      <c r="BI3" s="7"/>
+      <c r="BJ3" s="7"/>
+      <c r="BK3" s="7"/>
+      <c r="BL3" s="7"/>
+      <c r="BM3" s="7"/>
+      <c r="BN3" s="7"/>
+      <c r="BO3" s="7"/>
+      <c r="BP3" s="7"/>
+      <c r="BQ3" s="7"/>
+      <c r="CC3" s="5"/>
+      <c r="CD3" s="5"/>
+      <c r="CE3" s="5"/>
+      <c r="CF3" s="5"/>
+      <c r="CG3" s="5"/>
+      <c r="CH3" s="5"/>
+      <c r="CI3" s="5"/>
+      <c r="CJ3" s="5"/>
+      <c r="CK3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
+      <c r="DE3" s="5"/>
     </row>
     <row r="4" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AO4" s="4"/>
-      <c r="AP4" s="4"/>
-      <c r="AQ4" s="4"/>
-      <c r="AR4" s="4"/>
-      <c r="AS4" s="4"/>
-      <c r="AT4" s="4"/>
-      <c r="AU4" s="4"/>
-      <c r="AV4" s="4"/>
-      <c r="AW4" s="4"/>
-      <c r="BI4" s="4"/>
-      <c r="BJ4" s="4"/>
-      <c r="BK4" s="4"/>
-      <c r="BL4" s="4"/>
-      <c r="BM4" s="4"/>
-      <c r="BN4" s="4"/>
-      <c r="BO4" s="4"/>
-      <c r="BP4" s="4"/>
-      <c r="BQ4" s="4"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CW4" s="2"/>
-      <c r="CX4" s="2"/>
-      <c r="CY4" s="2"/>
-      <c r="CZ4" s="2"/>
-      <c r="DA4" s="2"/>
-      <c r="DB4" s="2"/>
-      <c r="DC4" s="2"/>
-      <c r="DD4" s="2"/>
-      <c r="DE4" s="2"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5"/>
+      <c r="Z4" s="5"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="5"/>
+      <c r="AC4" s="5"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="CC4" s="5"/>
+      <c r="CD4" s="5"/>
+      <c r="CE4" s="5"/>
+      <c r="CF4" s="5"/>
+      <c r="CG4" s="5"/>
+      <c r="CH4" s="5"/>
+      <c r="CI4" s="5"/>
+      <c r="CJ4" s="5"/>
+      <c r="CK4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="5"/>
+      <c r="DD4" s="5"/>
+      <c r="DE4" s="5"/>
     </row>
     <row r="5" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
-      <c r="W5" s="2"/>
-      <c r="X5" s="2"/>
-      <c r="Y5" s="2"/>
-      <c r="Z5" s="2"/>
-      <c r="AA5" s="2"/>
-      <c r="AB5" s="2"/>
-      <c r="AC5" s="2"/>
-      <c r="AO5" s="4"/>
-      <c r="AP5" s="4"/>
-      <c r="AQ5" s="4"/>
-      <c r="AR5" s="4"/>
-      <c r="AS5" s="4"/>
-      <c r="AT5" s="4"/>
-      <c r="AU5" s="4"/>
-      <c r="AV5" s="4"/>
-      <c r="AW5" s="4"/>
-      <c r="BI5" s="4"/>
-      <c r="BJ5" s="4"/>
-      <c r="BK5" s="4"/>
-      <c r="BL5" s="4"/>
-      <c r="BM5" s="4"/>
-      <c r="BN5" s="4"/>
-      <c r="BO5" s="4"/>
-      <c r="BP5" s="4"/>
-      <c r="BQ5" s="4"/>
-      <c r="CC5" s="2"/>
-      <c r="CD5" s="2"/>
-      <c r="CE5" s="2"/>
-      <c r="CF5" s="2"/>
-      <c r="CG5" s="2"/>
-      <c r="CH5" s="2"/>
-      <c r="CI5" s="2"/>
-      <c r="CJ5" s="2"/>
-      <c r="CK5" s="2"/>
-      <c r="CW5" s="2"/>
-      <c r="CX5" s="2"/>
-      <c r="CY5" s="2"/>
-      <c r="CZ5" s="2"/>
-      <c r="DA5" s="2"/>
-      <c r="DB5" s="2"/>
-      <c r="DC5" s="2"/>
-      <c r="DD5" s="2"/>
-      <c r="DE5" s="2"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="U5" s="5"/>
+      <c r="V5" s="5"/>
+      <c r="W5" s="5"/>
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5"/>
+      <c r="Z5" s="5"/>
+      <c r="AA5" s="5"/>
+      <c r="AB5" s="5"/>
+      <c r="AC5" s="5"/>
+      <c r="AO5" s="7"/>
+      <c r="AP5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AR5" s="7"/>
+      <c r="AS5" s="7"/>
+      <c r="AT5" s="7"/>
+      <c r="AU5" s="7"/>
+      <c r="AV5" s="7"/>
+      <c r="AW5" s="7"/>
+      <c r="BI5" s="7"/>
+      <c r="BJ5" s="7"/>
+      <c r="BK5" s="7"/>
+      <c r="BL5" s="7"/>
+      <c r="BM5" s="7"/>
+      <c r="BN5" s="7"/>
+      <c r="BO5" s="7"/>
+      <c r="BP5" s="7"/>
+      <c r="BQ5" s="7"/>
+      <c r="CC5" s="5"/>
+      <c r="CD5" s="5"/>
+      <c r="CE5" s="5"/>
+      <c r="CF5" s="5"/>
+      <c r="CG5" s="5"/>
+      <c r="CH5" s="5"/>
+      <c r="CI5" s="5"/>
+      <c r="CJ5" s="5"/>
+      <c r="CK5" s="5"/>
+      <c r="CW5" s="5"/>
+      <c r="CX5" s="5"/>
+      <c r="CY5" s="5"/>
+      <c r="CZ5" s="5"/>
+      <c r="DA5" s="5"/>
+      <c r="DB5" s="5"/>
+      <c r="DC5" s="5"/>
+      <c r="DD5" s="5"/>
+      <c r="DE5" s="5"/>
     </row>
     <row r="6" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="U6" s="2"/>
-      <c r="V6" s="2"/>
-      <c r="W6" s="2"/>
-      <c r="X6" s="2"/>
-      <c r="Y6" s="2"/>
-      <c r="Z6" s="2"/>
-      <c r="AA6" s="2"/>
-      <c r="AB6" s="2"/>
-      <c r="AC6" s="2"/>
-      <c r="AO6" s="4"/>
-      <c r="AP6" s="4"/>
-      <c r="AQ6" s="4"/>
-      <c r="AR6" s="4"/>
-      <c r="AS6" s="4"/>
-      <c r="AT6" s="4"/>
-      <c r="AU6" s="4"/>
-      <c r="AV6" s="4"/>
-      <c r="AW6" s="4"/>
-      <c r="BI6" s="4"/>
-      <c r="BJ6" s="4"/>
-      <c r="BK6" s="4"/>
-      <c r="BL6" s="4"/>
-      <c r="BM6" s="4"/>
-      <c r="BN6" s="4"/>
-      <c r="BO6" s="4"/>
-      <c r="BP6" s="4"/>
-      <c r="BQ6" s="4"/>
-      <c r="CC6" s="2"/>
-      <c r="CD6" s="2"/>
-      <c r="CE6" s="2"/>
-      <c r="CF6" s="2"/>
-      <c r="CG6" s="2"/>
-      <c r="CH6" s="2"/>
-      <c r="CI6" s="2"/>
-      <c r="CJ6" s="2"/>
-      <c r="CK6" s="2"/>
-      <c r="CW6" s="2"/>
-      <c r="CX6" s="2"/>
-      <c r="CY6" s="2"/>
-      <c r="CZ6" s="2"/>
-      <c r="DA6" s="2"/>
-      <c r="DB6" s="2"/>
-      <c r="DC6" s="2"/>
-      <c r="DD6" s="2"/>
-      <c r="DE6" s="2"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5"/>
+      <c r="Z6" s="5"/>
+      <c r="AA6" s="5"/>
+      <c r="AB6" s="5"/>
+      <c r="AC6" s="5"/>
+      <c r="AO6" s="7"/>
+      <c r="AP6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AR6" s="7"/>
+      <c r="AS6" s="7"/>
+      <c r="AT6" s="7"/>
+      <c r="AU6" s="7"/>
+      <c r="AV6" s="7"/>
+      <c r="AW6" s="7"/>
+      <c r="BI6" s="7"/>
+      <c r="BJ6" s="7"/>
+      <c r="BK6" s="7"/>
+      <c r="BL6" s="7"/>
+      <c r="BM6" s="7"/>
+      <c r="BN6" s="7"/>
+      <c r="BO6" s="7"/>
+      <c r="BP6" s="7"/>
+      <c r="BQ6" s="7"/>
+      <c r="CC6" s="5"/>
+      <c r="CD6" s="5"/>
+      <c r="CE6" s="5"/>
+      <c r="CF6" s="5"/>
+      <c r="CG6" s="5"/>
+      <c r="CH6" s="5"/>
+      <c r="CI6" s="5"/>
+      <c r="CJ6" s="5"/>
+      <c r="CK6" s="5"/>
+      <c r="CW6" s="5"/>
+      <c r="CX6" s="5"/>
+      <c r="CY6" s="5"/>
+      <c r="CZ6" s="5"/>
+      <c r="DA6" s="5"/>
+      <c r="DB6" s="5"/>
+      <c r="DC6" s="5"/>
+      <c r="DD6" s="5"/>
+      <c r="DE6" s="5"/>
     </row>
     <row r="7" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="U7" s="2"/>
-      <c r="V7" s="2"/>
-      <c r="W7" s="2"/>
-      <c r="X7" s="2"/>
-      <c r="Y7" s="2"/>
-      <c r="Z7" s="2"/>
-      <c r="AA7" s="2"/>
-      <c r="AB7" s="2"/>
-      <c r="AC7" s="2"/>
-      <c r="AO7" s="4"/>
-      <c r="AP7" s="4"/>
-      <c r="AQ7" s="4"/>
-      <c r="AR7" s="4"/>
-      <c r="AS7" s="4"/>
-      <c r="AT7" s="4"/>
-      <c r="AU7" s="4"/>
-      <c r="AV7" s="4"/>
-      <c r="AW7" s="4"/>
-      <c r="BI7" s="4"/>
-      <c r="BJ7" s="4"/>
-      <c r="BK7" s="4"/>
-      <c r="BL7" s="4"/>
-      <c r="BM7" s="4"/>
-      <c r="BN7" s="4"/>
-      <c r="BO7" s="4"/>
-      <c r="BP7" s="4"/>
-      <c r="BQ7" s="4"/>
-      <c r="CC7" s="2"/>
-      <c r="CD7" s="2"/>
-      <c r="CE7" s="2"/>
-      <c r="CF7" s="2"/>
-      <c r="CG7" s="2"/>
-      <c r="CH7" s="2"/>
-      <c r="CI7" s="2"/>
-      <c r="CJ7" s="2"/>
-      <c r="CK7" s="2"/>
-      <c r="CW7" s="2"/>
-      <c r="CX7" s="2"/>
-      <c r="CY7" s="2"/>
-      <c r="CZ7" s="2"/>
-      <c r="DA7" s="2"/>
-      <c r="DB7" s="2"/>
-      <c r="DC7" s="2"/>
-      <c r="DD7" s="2"/>
-      <c r="DE7" s="2"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5"/>
+      <c r="Z7" s="5"/>
+      <c r="AA7" s="5"/>
+      <c r="AB7" s="5"/>
+      <c r="AC7" s="5"/>
+      <c r="AO7" s="7"/>
+      <c r="AP7" s="7"/>
+      <c r="AQ7" s="7"/>
+      <c r="AR7" s="7"/>
+      <c r="AS7" s="7"/>
+      <c r="AT7" s="7"/>
+      <c r="AU7" s="7"/>
+      <c r="AV7" s="7"/>
+      <c r="AW7" s="7"/>
+      <c r="BI7" s="7"/>
+      <c r="BJ7" s="7"/>
+      <c r="BK7" s="7"/>
+      <c r="BL7" s="7"/>
+      <c r="BM7" s="7"/>
+      <c r="BN7" s="7"/>
+      <c r="BO7" s="7"/>
+      <c r="BP7" s="7"/>
+      <c r="BQ7" s="7"/>
+      <c r="CC7" s="5"/>
+      <c r="CD7" s="5"/>
+      <c r="CE7" s="5"/>
+      <c r="CF7" s="5"/>
+      <c r="CG7" s="5"/>
+      <c r="CH7" s="5"/>
+      <c r="CI7" s="5"/>
+      <c r="CJ7" s="5"/>
+      <c r="CK7" s="5"/>
+      <c r="CW7" s="5"/>
+      <c r="CX7" s="5"/>
+      <c r="CY7" s="5"/>
+      <c r="CZ7" s="5"/>
+      <c r="DA7" s="5"/>
+      <c r="DB7" s="5"/>
+      <c r="DC7" s="5"/>
+      <c r="DD7" s="5"/>
+      <c r="DE7" s="5"/>
     </row>
     <row r="8" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="U8" s="2"/>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AB8" s="2"/>
-      <c r="AC8" s="2"/>
-      <c r="AO8" s="4"/>
-      <c r="AP8" s="4"/>
-      <c r="AQ8" s="4"/>
-      <c r="AR8" s="4"/>
-      <c r="AS8" s="4"/>
-      <c r="AT8" s="4"/>
-      <c r="AU8" s="4"/>
-      <c r="AV8" s="4"/>
-      <c r="AW8" s="4"/>
-      <c r="BI8" s="4"/>
-      <c r="BJ8" s="4"/>
-      <c r="BK8" s="4"/>
-      <c r="BL8" s="4"/>
-      <c r="BM8" s="4"/>
-      <c r="BN8" s="4"/>
-      <c r="BO8" s="4"/>
-      <c r="BP8" s="4"/>
-      <c r="BQ8" s="4"/>
-      <c r="CC8" s="2"/>
-      <c r="CD8" s="2"/>
-      <c r="CE8" s="2"/>
-      <c r="CF8" s="2"/>
-      <c r="CG8" s="2"/>
-      <c r="CH8" s="2"/>
-      <c r="CI8" s="2"/>
-      <c r="CJ8" s="2"/>
-      <c r="CK8" s="2"/>
-      <c r="CW8" s="2"/>
-      <c r="CX8" s="2"/>
-      <c r="CY8" s="2"/>
-      <c r="CZ8" s="2"/>
-      <c r="DA8" s="2"/>
-      <c r="DB8" s="2"/>
-      <c r="DC8" s="2"/>
-      <c r="DD8" s="2"/>
-      <c r="DE8" s="2"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5"/>
+      <c r="Z8" s="5"/>
+      <c r="AA8" s="5"/>
+      <c r="AB8" s="5"/>
+      <c r="AC8" s="5"/>
+      <c r="AO8" s="7"/>
+      <c r="AP8" s="7"/>
+      <c r="AQ8" s="7"/>
+      <c r="AR8" s="7"/>
+      <c r="AS8" s="7"/>
+      <c r="AT8" s="7"/>
+      <c r="AU8" s="7"/>
+      <c r="AV8" s="7"/>
+      <c r="AW8" s="7"/>
+      <c r="BI8" s="7"/>
+      <c r="BJ8" s="7"/>
+      <c r="BK8" s="7"/>
+      <c r="BL8" s="7"/>
+      <c r="BM8" s="7"/>
+      <c r="BN8" s="7"/>
+      <c r="BO8" s="7"/>
+      <c r="BP8" s="7"/>
+      <c r="BQ8" s="7"/>
+      <c r="CC8" s="5"/>
+      <c r="CD8" s="5"/>
+      <c r="CE8" s="5"/>
+      <c r="CF8" s="5"/>
+      <c r="CG8" s="5"/>
+      <c r="CH8" s="5"/>
+      <c r="CI8" s="5"/>
+      <c r="CJ8" s="5"/>
+      <c r="CK8" s="5"/>
+      <c r="CW8" s="5"/>
+      <c r="CX8" s="5"/>
+      <c r="CY8" s="5"/>
+      <c r="CZ8" s="5"/>
+      <c r="DA8" s="5"/>
+      <c r="DB8" s="5"/>
+      <c r="DC8" s="5"/>
+      <c r="DD8" s="5"/>
+      <c r="DE8" s="5"/>
     </row>
     <row r="9" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="U9" s="2"/>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="2"/>
-      <c r="AC9" s="2"/>
-      <c r="AO9" s="4"/>
-      <c r="AP9" s="4"/>
-      <c r="AQ9" s="4"/>
-      <c r="AR9" s="4"/>
-      <c r="AS9" s="4"/>
-      <c r="AT9" s="4"/>
-      <c r="AU9" s="4"/>
-      <c r="AV9" s="4"/>
-      <c r="AW9" s="4"/>
-      <c r="BI9" s="4"/>
-      <c r="BJ9" s="4"/>
-      <c r="BK9" s="4"/>
-      <c r="BL9" s="4"/>
-      <c r="BM9" s="4"/>
-      <c r="BN9" s="4"/>
-      <c r="BO9" s="4"/>
-      <c r="BP9" s="4"/>
-      <c r="BQ9" s="4"/>
-      <c r="CC9" s="2"/>
-      <c r="CD9" s="2"/>
-      <c r="CE9" s="2"/>
-      <c r="CF9" s="2"/>
-      <c r="CG9" s="2"/>
-      <c r="CH9" s="2"/>
-      <c r="CI9" s="2"/>
-      <c r="CJ9" s="2"/>
-      <c r="CK9" s="2"/>
-      <c r="CW9" s="2"/>
-      <c r="CX9" s="2"/>
-      <c r="CY9" s="2"/>
-      <c r="CZ9" s="2"/>
-      <c r="DA9" s="2"/>
-      <c r="DB9" s="2"/>
-      <c r="DC9" s="2"/>
-      <c r="DD9" s="2"/>
-      <c r="DE9" s="2"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5"/>
+      <c r="Z9" s="5"/>
+      <c r="AA9" s="5"/>
+      <c r="AB9" s="5"/>
+      <c r="AC9" s="5"/>
+      <c r="AO9" s="7"/>
+      <c r="AP9" s="7"/>
+      <c r="AQ9" s="7"/>
+      <c r="AR9" s="7"/>
+      <c r="AS9" s="7"/>
+      <c r="AT9" s="7"/>
+      <c r="AU9" s="7"/>
+      <c r="AV9" s="7"/>
+      <c r="AW9" s="7"/>
+      <c r="BI9" s="7"/>
+      <c r="BJ9" s="7"/>
+      <c r="BK9" s="7"/>
+      <c r="BL9" s="7"/>
+      <c r="BM9" s="7"/>
+      <c r="BN9" s="7"/>
+      <c r="BO9" s="7"/>
+      <c r="BP9" s="7"/>
+      <c r="BQ9" s="7"/>
+      <c r="CC9" s="5"/>
+      <c r="CD9" s="5"/>
+      <c r="CE9" s="5"/>
+      <c r="CF9" s="5"/>
+      <c r="CG9" s="5"/>
+      <c r="CH9" s="5"/>
+      <c r="CI9" s="5"/>
+      <c r="CJ9" s="5"/>
+      <c r="CK9" s="5"/>
+      <c r="CW9" s="5"/>
+      <c r="CX9" s="5"/>
+      <c r="CY9" s="5"/>
+      <c r="CZ9" s="5"/>
+      <c r="DA9" s="5"/>
+      <c r="DB9" s="5"/>
+      <c r="DC9" s="5"/>
+      <c r="DD9" s="5"/>
+      <c r="DE9" s="5"/>
     </row>
     <row r="10" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="U10" s="2"/>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AB10" s="2"/>
-      <c r="AC10" s="2"/>
-      <c r="AO10" s="4"/>
-      <c r="AP10" s="4"/>
-      <c r="AQ10" s="4"/>
-      <c r="AR10" s="4"/>
-      <c r="AS10" s="4"/>
-      <c r="AT10" s="4"/>
-      <c r="AU10" s="4"/>
-      <c r="AV10" s="4"/>
-      <c r="AW10" s="4"/>
-      <c r="BI10" s="4"/>
-      <c r="BJ10" s="4"/>
-      <c r="BK10" s="4"/>
-      <c r="BL10" s="4"/>
-      <c r="BM10" s="4"/>
-      <c r="BN10" s="4"/>
-      <c r="BO10" s="4"/>
-      <c r="BP10" s="4"/>
-      <c r="BQ10" s="4"/>
-      <c r="CC10" s="2"/>
-      <c r="CD10" s="2"/>
-      <c r="CE10" s="2"/>
-      <c r="CF10" s="2"/>
-      <c r="CG10" s="2"/>
-      <c r="CH10" s="2"/>
-      <c r="CI10" s="2"/>
-      <c r="CJ10" s="2"/>
-      <c r="CK10" s="2"/>
-      <c r="CW10" s="2"/>
-      <c r="CX10" s="2"/>
-      <c r="CY10" s="2"/>
-      <c r="CZ10" s="2"/>
-      <c r="DA10" s="2"/>
-      <c r="DB10" s="2"/>
-      <c r="DC10" s="2"/>
-      <c r="DD10" s="2"/>
-      <c r="DE10" s="2"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5"/>
+      <c r="Z10" s="5"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="5"/>
+      <c r="AC10" s="5"/>
+      <c r="AO10" s="7"/>
+      <c r="AP10" s="7"/>
+      <c r="AQ10" s="7"/>
+      <c r="AR10" s="7"/>
+      <c r="AS10" s="7"/>
+      <c r="AT10" s="7"/>
+      <c r="AU10" s="7"/>
+      <c r="AV10" s="7"/>
+      <c r="AW10" s="7"/>
+      <c r="BI10" s="7"/>
+      <c r="BJ10" s="7"/>
+      <c r="BK10" s="7"/>
+      <c r="BL10" s="7"/>
+      <c r="BM10" s="7"/>
+      <c r="BN10" s="7"/>
+      <c r="BO10" s="7"/>
+      <c r="BP10" s="7"/>
+      <c r="BQ10" s="7"/>
+      <c r="CC10" s="5"/>
+      <c r="CD10" s="5"/>
+      <c r="CE10" s="5"/>
+      <c r="CF10" s="5"/>
+      <c r="CG10" s="5"/>
+      <c r="CH10" s="5"/>
+      <c r="CI10" s="5"/>
+      <c r="CJ10" s="5"/>
+      <c r="CK10" s="5"/>
+      <c r="CW10" s="5"/>
+      <c r="CX10" s="5"/>
+      <c r="CY10" s="5"/>
+      <c r="CZ10" s="5"/>
+      <c r="DA10" s="5"/>
+      <c r="DB10" s="5"/>
+      <c r="DC10" s="5"/>
+      <c r="DD10" s="5"/>
+      <c r="DE10" s="5"/>
     </row>
     <row r="11" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="U11" s="2"/>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AB11" s="2"/>
-      <c r="AC11" s="2"/>
-      <c r="AO11" s="4"/>
-      <c r="AP11" s="4"/>
-      <c r="AQ11" s="4"/>
-      <c r="AR11" s="4"/>
-      <c r="AS11" s="4"/>
-      <c r="AT11" s="4"/>
-      <c r="AU11" s="4"/>
-      <c r="AV11" s="4"/>
-      <c r="AW11" s="4"/>
-      <c r="BI11" s="4"/>
-      <c r="BJ11" s="4"/>
-      <c r="BK11" s="4"/>
-      <c r="BL11" s="4"/>
-      <c r="BM11" s="4"/>
-      <c r="BN11" s="4"/>
-      <c r="BO11" s="4"/>
-      <c r="BP11" s="4"/>
-      <c r="BQ11" s="4"/>
-      <c r="CC11" s="2"/>
-      <c r="CD11" s="2"/>
-      <c r="CE11" s="2"/>
-      <c r="CF11" s="2"/>
-      <c r="CG11" s="2"/>
-      <c r="CH11" s="2"/>
-      <c r="CI11" s="2"/>
-      <c r="CJ11" s="2"/>
-      <c r="CK11" s="2"/>
-      <c r="CW11" s="2"/>
-      <c r="CX11" s="2"/>
-      <c r="CY11" s="2"/>
-      <c r="CZ11" s="2"/>
-      <c r="DA11" s="2"/>
-      <c r="DB11" s="2"/>
-      <c r="DC11" s="2"/>
-      <c r="DD11" s="2"/>
-      <c r="DE11" s="2"/>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="U11" s="5"/>
+      <c r="V11" s="5"/>
+      <c r="W11" s="5"/>
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5"/>
+      <c r="Z11" s="5"/>
+      <c r="AA11" s="5"/>
+      <c r="AB11" s="5"/>
+      <c r="AC11" s="5"/>
+      <c r="AO11" s="7"/>
+      <c r="AP11" s="7"/>
+      <c r="AQ11" s="7"/>
+      <c r="AR11" s="7"/>
+      <c r="AS11" s="7"/>
+      <c r="AT11" s="7"/>
+      <c r="AU11" s="7"/>
+      <c r="AV11" s="7"/>
+      <c r="AW11" s="7"/>
+      <c r="BI11" s="7"/>
+      <c r="BJ11" s="7"/>
+      <c r="BK11" s="7"/>
+      <c r="BL11" s="7"/>
+      <c r="BM11" s="7"/>
+      <c r="BN11" s="7"/>
+      <c r="BO11" s="7"/>
+      <c r="BP11" s="7"/>
+      <c r="BQ11" s="7"/>
+      <c r="CC11" s="5"/>
+      <c r="CD11" s="5"/>
+      <c r="CE11" s="5"/>
+      <c r="CF11" s="5"/>
+      <c r="CG11" s="5"/>
+      <c r="CH11" s="5"/>
+      <c r="CI11" s="5"/>
+      <c r="CJ11" s="5"/>
+      <c r="CK11" s="5"/>
+      <c r="CW11" s="5"/>
+      <c r="CX11" s="5"/>
+      <c r="CY11" s="5"/>
+      <c r="CZ11" s="5"/>
+      <c r="DA11" s="5"/>
+      <c r="DB11" s="5"/>
+      <c r="DC11" s="5"/>
+      <c r="DD11" s="5"/>
+      <c r="DE11" s="5"/>
     </row>
     <row r="12" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="U12" s="2" t="s">
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="U12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AB12" s="2"/>
-      <c r="AC12" s="2"/>
-      <c r="AO12" s="4" t="s">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5"/>
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5"/>
+      <c r="Z12" s="5"/>
+      <c r="AA12" s="5"/>
+      <c r="AB12" s="5"/>
+      <c r="AC12" s="5"/>
+      <c r="AO12" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AP12" s="4"/>
-      <c r="AQ12" s="4"/>
-      <c r="AR12" s="4"/>
-      <c r="AS12" s="4"/>
-      <c r="AT12" s="4"/>
-      <c r="AU12" s="4"/>
-      <c r="AV12" s="4"/>
-      <c r="AW12" s="4"/>
-      <c r="BI12" s="2" t="s">
+      <c r="AP12" s="7"/>
+      <c r="AQ12" s="7"/>
+      <c r="AR12" s="7"/>
+      <c r="AS12" s="7"/>
+      <c r="AT12" s="7"/>
+      <c r="AU12" s="7"/>
+      <c r="AV12" s="7"/>
+      <c r="AW12" s="7"/>
+      <c r="BI12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="BJ12" s="2"/>
-      <c r="BK12" s="2"/>
-      <c r="BL12" s="2"/>
-      <c r="BM12" s="2"/>
-      <c r="BN12" s="2"/>
-      <c r="BO12" s="2"/>
-      <c r="BP12" s="2"/>
-      <c r="BQ12" s="2"/>
-      <c r="CC12" s="2" t="s">
+      <c r="BJ12" s="5"/>
+      <c r="BK12" s="5"/>
+      <c r="BL12" s="5"/>
+      <c r="BM12" s="5"/>
+      <c r="BN12" s="5"/>
+      <c r="BO12" s="5"/>
+      <c r="BP12" s="5"/>
+      <c r="BQ12" s="5"/>
+      <c r="CC12" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CD12" s="2"/>
-      <c r="CE12" s="2"/>
-      <c r="CF12" s="2"/>
-      <c r="CG12" s="2"/>
-      <c r="CH12" s="2"/>
-      <c r="CI12" s="2"/>
-      <c r="CJ12" s="2"/>
-      <c r="CK12" s="2"/>
-      <c r="CW12" s="5" t="s">
+      <c r="CD12" s="5"/>
+      <c r="CE12" s="5"/>
+      <c r="CF12" s="5"/>
+      <c r="CG12" s="5"/>
+      <c r="CH12" s="5"/>
+      <c r="CI12" s="5"/>
+      <c r="CJ12" s="5"/>
+      <c r="CK12" s="5"/>
+      <c r="CW12" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="CX12" s="5"/>
-      <c r="CY12" s="5"/>
-      <c r="CZ12" s="5"/>
-      <c r="DA12" s="5"/>
-      <c r="DB12" s="5"/>
-      <c r="DC12" s="5"/>
-      <c r="DD12" s="5"/>
-      <c r="DE12" s="5"/>
+      <c r="CX12" s="6"/>
+      <c r="CY12" s="6"/>
+      <c r="CZ12" s="6"/>
+      <c r="DA12" s="6"/>
+      <c r="DB12" s="6"/>
+      <c r="DC12" s="6"/>
+      <c r="DD12" s="6"/>
+      <c r="DE12" s="6"/>
     </row>
     <row r="13" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="U13" s="2"/>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AB13" s="2"/>
-      <c r="AC13" s="2"/>
-      <c r="AO13" s="4"/>
-      <c r="AP13" s="4"/>
-      <c r="AQ13" s="4"/>
-      <c r="AR13" s="4"/>
-      <c r="AS13" s="4"/>
-      <c r="AT13" s="4"/>
-      <c r="AU13" s="4"/>
-      <c r="AV13" s="4"/>
-      <c r="AW13" s="4"/>
-      <c r="BI13" s="2"/>
-      <c r="BJ13" s="2"/>
-      <c r="BK13" s="2"/>
-      <c r="BL13" s="2"/>
-      <c r="BM13" s="2"/>
-      <c r="BN13" s="2"/>
-      <c r="BO13" s="2"/>
-      <c r="BP13" s="2"/>
-      <c r="BQ13" s="2"/>
-      <c r="CC13" s="2"/>
-      <c r="CD13" s="2"/>
-      <c r="CE13" s="2"/>
-      <c r="CF13" s="2"/>
-      <c r="CG13" s="2"/>
-      <c r="CH13" s="2"/>
-      <c r="CI13" s="2"/>
-      <c r="CJ13" s="2"/>
-      <c r="CK13" s="2"/>
-      <c r="CW13" s="5"/>
-      <c r="CX13" s="5"/>
-      <c r="CY13" s="5"/>
-      <c r="CZ13" s="5"/>
-      <c r="DA13" s="5"/>
-      <c r="DB13" s="5"/>
-      <c r="DC13" s="5"/>
-      <c r="DD13" s="5"/>
-      <c r="DE13" s="5"/>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AB13" s="5"/>
+      <c r="AC13" s="5"/>
+      <c r="AO13" s="7"/>
+      <c r="AP13" s="7"/>
+      <c r="AQ13" s="7"/>
+      <c r="AR13" s="7"/>
+      <c r="AS13" s="7"/>
+      <c r="AT13" s="7"/>
+      <c r="AU13" s="7"/>
+      <c r="AV13" s="7"/>
+      <c r="AW13" s="7"/>
+      <c r="BI13" s="5"/>
+      <c r="BJ13" s="5"/>
+      <c r="BK13" s="5"/>
+      <c r="BL13" s="5"/>
+      <c r="BM13" s="5"/>
+      <c r="BN13" s="5"/>
+      <c r="BO13" s="5"/>
+      <c r="BP13" s="5"/>
+      <c r="BQ13" s="5"/>
+      <c r="CC13" s="5"/>
+      <c r="CD13" s="5"/>
+      <c r="CE13" s="5"/>
+      <c r="CF13" s="5"/>
+      <c r="CG13" s="5"/>
+      <c r="CH13" s="5"/>
+      <c r="CI13" s="5"/>
+      <c r="CJ13" s="5"/>
+      <c r="CK13" s="5"/>
+      <c r="CW13" s="6"/>
+      <c r="CX13" s="6"/>
+      <c r="CY13" s="6"/>
+      <c r="CZ13" s="6"/>
+      <c r="DA13" s="6"/>
+      <c r="DB13" s="6"/>
+      <c r="DC13" s="6"/>
+      <c r="DD13" s="6"/>
+      <c r="DE13" s="6"/>
     </row>
     <row r="14" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2"/>
-      <c r="W14" s="2"/>
-      <c r="X14" s="2"/>
-      <c r="Y14" s="2"/>
-      <c r="Z14" s="2"/>
-      <c r="AA14" s="2"/>
-      <c r="AB14" s="2"/>
-      <c r="AC14" s="2"/>
-      <c r="AO14" s="4"/>
-      <c r="AP14" s="4"/>
-      <c r="AQ14" s="4"/>
-      <c r="AR14" s="4"/>
-      <c r="AS14" s="4"/>
-      <c r="AT14" s="4"/>
-      <c r="AU14" s="4"/>
-      <c r="AV14" s="4"/>
-      <c r="AW14" s="4"/>
-      <c r="BI14" s="2"/>
-      <c r="BJ14" s="2"/>
-      <c r="BK14" s="2"/>
-      <c r="BL14" s="2"/>
-      <c r="BM14" s="2"/>
-      <c r="BN14" s="2"/>
-      <c r="BO14" s="2"/>
-      <c r="BP14" s="2"/>
-      <c r="BQ14" s="2"/>
-      <c r="CC14" s="2"/>
-      <c r="CD14" s="2"/>
-      <c r="CE14" s="2"/>
-      <c r="CF14" s="2"/>
-      <c r="CG14" s="2"/>
-      <c r="CH14" s="2"/>
-      <c r="CI14" s="2"/>
-      <c r="CJ14" s="2"/>
-      <c r="CK14" s="2"/>
-      <c r="CW14" s="5"/>
-      <c r="CX14" s="5"/>
-      <c r="CY14" s="5"/>
-      <c r="CZ14" s="5"/>
-      <c r="DA14" s="5"/>
-      <c r="DB14" s="5"/>
-      <c r="DC14" s="5"/>
-      <c r="DD14" s="5"/>
-      <c r="DE14" s="5"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="U14" s="5"/>
+      <c r="V14" s="5"/>
+      <c r="W14" s="5"/>
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="5"/>
+      <c r="AA14" s="5"/>
+      <c r="AB14" s="5"/>
+      <c r="AC14" s="5"/>
+      <c r="AO14" s="7"/>
+      <c r="AP14" s="7"/>
+      <c r="AQ14" s="7"/>
+      <c r="AR14" s="7"/>
+      <c r="AS14" s="7"/>
+      <c r="AT14" s="7"/>
+      <c r="AU14" s="7"/>
+      <c r="AV14" s="7"/>
+      <c r="AW14" s="7"/>
+      <c r="BI14" s="5"/>
+      <c r="BJ14" s="5"/>
+      <c r="BK14" s="5"/>
+      <c r="BL14" s="5"/>
+      <c r="BM14" s="5"/>
+      <c r="BN14" s="5"/>
+      <c r="BO14" s="5"/>
+      <c r="BP14" s="5"/>
+      <c r="BQ14" s="5"/>
+      <c r="CC14" s="5"/>
+      <c r="CD14" s="5"/>
+      <c r="CE14" s="5"/>
+      <c r="CF14" s="5"/>
+      <c r="CG14" s="5"/>
+      <c r="CH14" s="5"/>
+      <c r="CI14" s="5"/>
+      <c r="CJ14" s="5"/>
+      <c r="CK14" s="5"/>
+      <c r="CW14" s="6"/>
+      <c r="CX14" s="6"/>
+      <c r="CY14" s="6"/>
+      <c r="CZ14" s="6"/>
+      <c r="DA14" s="6"/>
+      <c r="DB14" s="6"/>
+      <c r="DC14" s="6"/>
+      <c r="DD14" s="6"/>
+      <c r="DE14" s="6"/>
     </row>
     <row r="15" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="U15" s="2"/>
-      <c r="V15" s="2"/>
-      <c r="W15" s="2"/>
-      <c r="X15" s="2"/>
-      <c r="Y15" s="2"/>
-      <c r="Z15" s="2"/>
-      <c r="AA15" s="2"/>
-      <c r="AB15" s="2"/>
-      <c r="AC15" s="2"/>
-      <c r="AO15" s="4"/>
-      <c r="AP15" s="4"/>
-      <c r="AQ15" s="4"/>
-      <c r="AR15" s="4"/>
-      <c r="AS15" s="4"/>
-      <c r="AT15" s="4"/>
-      <c r="AU15" s="4"/>
-      <c r="AV15" s="4"/>
-      <c r="AW15" s="4"/>
-      <c r="BI15" s="2"/>
-      <c r="BJ15" s="2"/>
-      <c r="BK15" s="2"/>
-      <c r="BL15" s="2"/>
-      <c r="BM15" s="2"/>
-      <c r="BN15" s="2"/>
-      <c r="BO15" s="2"/>
-      <c r="BP15" s="2"/>
-      <c r="BQ15" s="2"/>
-      <c r="CC15" s="2"/>
-      <c r="CD15" s="2"/>
-      <c r="CE15" s="2"/>
-      <c r="CF15" s="2"/>
-      <c r="CG15" s="2"/>
-      <c r="CH15" s="2"/>
-      <c r="CI15" s="2"/>
-      <c r="CJ15" s="2"/>
-      <c r="CK15" s="2"/>
-      <c r="CW15" s="5"/>
-      <c r="CX15" s="5"/>
-      <c r="CY15" s="5"/>
-      <c r="CZ15" s="5"/>
-      <c r="DA15" s="5"/>
-      <c r="DB15" s="5"/>
-      <c r="DC15" s="5"/>
-      <c r="DD15" s="5"/>
-      <c r="DE15" s="5"/>
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="U15" s="5"/>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5"/>
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5"/>
+      <c r="Z15" s="5"/>
+      <c r="AA15" s="5"/>
+      <c r="AB15" s="5"/>
+      <c r="AC15" s="5"/>
+      <c r="AO15" s="7"/>
+      <c r="AP15" s="7"/>
+      <c r="AQ15" s="7"/>
+      <c r="AR15" s="7"/>
+      <c r="AS15" s="7"/>
+      <c r="AT15" s="7"/>
+      <c r="AU15" s="7"/>
+      <c r="AV15" s="7"/>
+      <c r="AW15" s="7"/>
+      <c r="BI15" s="5"/>
+      <c r="BJ15" s="5"/>
+      <c r="BK15" s="5"/>
+      <c r="BL15" s="5"/>
+      <c r="BM15" s="5"/>
+      <c r="BN15" s="5"/>
+      <c r="BO15" s="5"/>
+      <c r="BP15" s="5"/>
+      <c r="BQ15" s="5"/>
+      <c r="CC15" s="5"/>
+      <c r="CD15" s="5"/>
+      <c r="CE15" s="5"/>
+      <c r="CF15" s="5"/>
+      <c r="CG15" s="5"/>
+      <c r="CH15" s="5"/>
+      <c r="CI15" s="5"/>
+      <c r="CJ15" s="5"/>
+      <c r="CK15" s="5"/>
+      <c r="CW15" s="6"/>
+      <c r="CX15" s="6"/>
+      <c r="CY15" s="6"/>
+      <c r="CZ15" s="6"/>
+      <c r="DA15" s="6"/>
+      <c r="DB15" s="6"/>
+      <c r="DC15" s="6"/>
+      <c r="DD15" s="6"/>
+      <c r="DE15" s="6"/>
     </row>
     <row r="16" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="U16" s="2"/>
-      <c r="V16" s="2"/>
-      <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
-      <c r="Y16" s="2"/>
-      <c r="Z16" s="2"/>
-      <c r="AA16" s="2"/>
-      <c r="AB16" s="2"/>
-      <c r="AC16" s="2"/>
-      <c r="AG16" s="6"/>
-      <c r="AO16" s="4"/>
-      <c r="AP16" s="4"/>
-      <c r="AQ16" s="4"/>
-      <c r="AR16" s="4"/>
-      <c r="AS16" s="4"/>
-      <c r="AT16" s="4"/>
-      <c r="AU16" s="4"/>
-      <c r="AV16" s="4"/>
-      <c r="AW16" s="4"/>
-      <c r="BI16" s="2"/>
-      <c r="BJ16" s="2"/>
-      <c r="BK16" s="2"/>
-      <c r="BL16" s="2"/>
-      <c r="BM16" s="2"/>
-      <c r="BN16" s="2"/>
-      <c r="BO16" s="2"/>
-      <c r="BP16" s="2"/>
-      <c r="BQ16" s="2"/>
-      <c r="CC16" s="2"/>
-      <c r="CD16" s="2"/>
-      <c r="CE16" s="2"/>
-      <c r="CF16" s="2"/>
-      <c r="CG16" s="2"/>
-      <c r="CH16" s="2"/>
-      <c r="CI16" s="2"/>
-      <c r="CJ16" s="2"/>
-      <c r="CK16" s="2"/>
-      <c r="CW16" s="5"/>
-      <c r="CX16" s="5"/>
-      <c r="CY16" s="5"/>
-      <c r="CZ16" s="5"/>
-      <c r="DA16" s="5"/>
-      <c r="DB16" s="5"/>
-      <c r="DC16" s="5"/>
-      <c r="DD16" s="5"/>
-      <c r="DE16" s="5"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="U16" s="5"/>
+      <c r="V16" s="5"/>
+      <c r="W16" s="5"/>
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5"/>
+      <c r="Z16" s="5"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="5"/>
+      <c r="AC16" s="5"/>
+      <c r="AG16" s="2"/>
+      <c r="AO16" s="7"/>
+      <c r="AP16" s="7"/>
+      <c r="AQ16" s="7"/>
+      <c r="AR16" s="7"/>
+      <c r="AS16" s="7"/>
+      <c r="AT16" s="7"/>
+      <c r="AU16" s="7"/>
+      <c r="AV16" s="7"/>
+      <c r="AW16" s="7"/>
+      <c r="BI16" s="5"/>
+      <c r="BJ16" s="5"/>
+      <c r="BK16" s="5"/>
+      <c r="BL16" s="5"/>
+      <c r="BM16" s="5"/>
+      <c r="BN16" s="5"/>
+      <c r="BO16" s="5"/>
+      <c r="BP16" s="5"/>
+      <c r="BQ16" s="5"/>
+      <c r="CC16" s="5"/>
+      <c r="CD16" s="5"/>
+      <c r="CE16" s="5"/>
+      <c r="CF16" s="5"/>
+      <c r="CG16" s="5"/>
+      <c r="CH16" s="5"/>
+      <c r="CI16" s="5"/>
+      <c r="CJ16" s="5"/>
+      <c r="CK16" s="5"/>
+      <c r="CW16" s="6"/>
+      <c r="CX16" s="6"/>
+      <c r="CY16" s="6"/>
+      <c r="CZ16" s="6"/>
+      <c r="DA16" s="6"/>
+      <c r="DB16" s="6"/>
+      <c r="DC16" s="6"/>
+      <c r="DD16" s="6"/>
+      <c r="DE16" s="6"/>
     </row>
     <row r="17" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="U17" s="2"/>
-      <c r="V17" s="2"/>
-      <c r="W17" s="2"/>
-      <c r="X17" s="2"/>
-      <c r="Y17" s="2"/>
-      <c r="Z17" s="2"/>
-      <c r="AA17" s="2"/>
-      <c r="AB17" s="2"/>
-      <c r="AC17" s="2"/>
-      <c r="AI17" s="6"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-      <c r="AT17" s="4"/>
-      <c r="AU17" s="4"/>
-      <c r="AV17" s="4"/>
-      <c r="AW17" s="4"/>
-      <c r="BI17" s="2"/>
-      <c r="BJ17" s="2"/>
-      <c r="BK17" s="2"/>
-      <c r="BL17" s="2"/>
-      <c r="BM17" s="2"/>
-      <c r="BN17" s="2"/>
-      <c r="BO17" s="2"/>
-      <c r="BP17" s="2"/>
-      <c r="BQ17" s="2"/>
-      <c r="CC17" s="2"/>
-      <c r="CD17" s="2"/>
-      <c r="CE17" s="2"/>
-      <c r="CF17" s="2"/>
-      <c r="CG17" s="2"/>
-      <c r="CH17" s="2"/>
-      <c r="CI17" s="2"/>
-      <c r="CJ17" s="2"/>
-      <c r="CK17" s="2"/>
-      <c r="CW17" s="5"/>
-      <c r="CX17" s="5"/>
-      <c r="CY17" s="5"/>
-      <c r="CZ17" s="5"/>
-      <c r="DA17" s="5"/>
-      <c r="DB17" s="5"/>
-      <c r="DC17" s="5"/>
-      <c r="DD17" s="5"/>
-      <c r="DE17" s="5"/>
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="U17" s="5"/>
+      <c r="V17" s="5"/>
+      <c r="W17" s="5"/>
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5"/>
+      <c r="Z17" s="5"/>
+      <c r="AA17" s="5"/>
+      <c r="AB17" s="5"/>
+      <c r="AC17" s="5"/>
+      <c r="AI17" s="2"/>
+      <c r="AO17" s="7"/>
+      <c r="AP17" s="7"/>
+      <c r="AQ17" s="7"/>
+      <c r="AR17" s="7"/>
+      <c r="AS17" s="7"/>
+      <c r="AT17" s="7"/>
+      <c r="AU17" s="7"/>
+      <c r="AV17" s="7"/>
+      <c r="AW17" s="7"/>
+      <c r="BI17" s="5"/>
+      <c r="BJ17" s="5"/>
+      <c r="BK17" s="5"/>
+      <c r="BL17" s="5"/>
+      <c r="BM17" s="5"/>
+      <c r="BN17" s="5"/>
+      <c r="BO17" s="5"/>
+      <c r="BP17" s="5"/>
+      <c r="BQ17" s="5"/>
+      <c r="CC17" s="5"/>
+      <c r="CD17" s="5"/>
+      <c r="CE17" s="5"/>
+      <c r="CF17" s="5"/>
+      <c r="CG17" s="5"/>
+      <c r="CH17" s="5"/>
+      <c r="CI17" s="5"/>
+      <c r="CJ17" s="5"/>
+      <c r="CK17" s="5"/>
+      <c r="CW17" s="6"/>
+      <c r="CX17" s="6"/>
+      <c r="CY17" s="6"/>
+      <c r="CZ17" s="6"/>
+      <c r="DA17" s="6"/>
+      <c r="DB17" s="6"/>
+      <c r="DC17" s="6"/>
+      <c r="DD17" s="6"/>
+      <c r="DE17" s="6"/>
     </row>
     <row r="18" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="U18" s="2"/>
-      <c r="V18" s="2"/>
-      <c r="W18" s="2"/>
-      <c r="X18" s="2"/>
-      <c r="Y18" s="2"/>
-      <c r="Z18" s="2"/>
-      <c r="AA18" s="2"/>
-      <c r="AB18" s="2"/>
-      <c r="AC18" s="2"/>
-      <c r="AO18" s="4"/>
-      <c r="AP18" s="4"/>
-      <c r="AQ18" s="4"/>
-      <c r="AR18" s="4"/>
-      <c r="AS18" s="4"/>
-      <c r="AT18" s="4"/>
-      <c r="AU18" s="4"/>
-      <c r="AV18" s="4"/>
-      <c r="AW18" s="4"/>
-      <c r="BI18" s="2"/>
-      <c r="BJ18" s="2"/>
-      <c r="BK18" s="2"/>
-      <c r="BL18" s="2"/>
-      <c r="BM18" s="2"/>
-      <c r="BN18" s="2"/>
-      <c r="BO18" s="2"/>
-      <c r="BP18" s="2"/>
-      <c r="BQ18" s="2"/>
-      <c r="CC18" s="2"/>
-      <c r="CD18" s="2"/>
-      <c r="CE18" s="2"/>
-      <c r="CF18" s="2"/>
-      <c r="CG18" s="2"/>
-      <c r="CH18" s="2"/>
-      <c r="CI18" s="2"/>
-      <c r="CJ18" s="2"/>
-      <c r="CK18" s="2"/>
-      <c r="CW18" s="5"/>
-      <c r="CX18" s="5"/>
-      <c r="CY18" s="5"/>
-      <c r="CZ18" s="5"/>
-      <c r="DA18" s="5"/>
-      <c r="DB18" s="5"/>
-      <c r="DC18" s="5"/>
-      <c r="DD18" s="5"/>
-      <c r="DE18" s="5"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="U18" s="5"/>
+      <c r="V18" s="5"/>
+      <c r="W18" s="5"/>
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5"/>
+      <c r="Z18" s="5"/>
+      <c r="AA18" s="5"/>
+      <c r="AB18" s="5"/>
+      <c r="AC18" s="5"/>
+      <c r="AO18" s="7"/>
+      <c r="AP18" s="7"/>
+      <c r="AQ18" s="7"/>
+      <c r="AR18" s="7"/>
+      <c r="AS18" s="7"/>
+      <c r="AT18" s="7"/>
+      <c r="AU18" s="7"/>
+      <c r="AV18" s="7"/>
+      <c r="AW18" s="7"/>
+      <c r="BI18" s="5"/>
+      <c r="BJ18" s="5"/>
+      <c r="BK18" s="5"/>
+      <c r="BL18" s="5"/>
+      <c r="BM18" s="5"/>
+      <c r="BN18" s="5"/>
+      <c r="BO18" s="5"/>
+      <c r="BP18" s="5"/>
+      <c r="BQ18" s="5"/>
+      <c r="CC18" s="5"/>
+      <c r="CD18" s="5"/>
+      <c r="CE18" s="5"/>
+      <c r="CF18" s="5"/>
+      <c r="CG18" s="5"/>
+      <c r="CH18" s="5"/>
+      <c r="CI18" s="5"/>
+      <c r="CJ18" s="5"/>
+      <c r="CK18" s="5"/>
+      <c r="CW18" s="6"/>
+      <c r="CX18" s="6"/>
+      <c r="CY18" s="6"/>
+      <c r="CZ18" s="6"/>
+      <c r="DA18" s="6"/>
+      <c r="DB18" s="6"/>
+      <c r="DC18" s="6"/>
+      <c r="DD18" s="6"/>
+      <c r="DE18" s="6"/>
     </row>
     <row r="19" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="U19" s="2"/>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AB19" s="2"/>
-      <c r="AC19" s="2"/>
-      <c r="AO19" s="4"/>
-      <c r="AP19" s="4"/>
-      <c r="AQ19" s="4"/>
-      <c r="AR19" s="4"/>
-      <c r="AS19" s="4"/>
-      <c r="AT19" s="4"/>
-      <c r="AU19" s="4"/>
-      <c r="AV19" s="4"/>
-      <c r="AW19" s="4"/>
-      <c r="BI19" s="2"/>
-      <c r="BJ19" s="2"/>
-      <c r="BK19" s="2"/>
-      <c r="BL19" s="2"/>
-      <c r="BM19" s="2"/>
-      <c r="BN19" s="2"/>
-      <c r="BO19" s="2"/>
-      <c r="BP19" s="2"/>
-      <c r="BQ19" s="2"/>
-      <c r="CC19" s="2"/>
-      <c r="CD19" s="2"/>
-      <c r="CE19" s="2"/>
-      <c r="CF19" s="2"/>
-      <c r="CG19" s="2"/>
-      <c r="CH19" s="2"/>
-      <c r="CI19" s="2"/>
-      <c r="CJ19" s="2"/>
-      <c r="CK19" s="2"/>
-      <c r="CW19" s="5"/>
-      <c r="CX19" s="5"/>
-      <c r="CY19" s="5"/>
-      <c r="CZ19" s="5"/>
-      <c r="DA19" s="5"/>
-      <c r="DB19" s="5"/>
-      <c r="DC19" s="5"/>
-      <c r="DD19" s="5"/>
-      <c r="DE19" s="5"/>
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+      <c r="F19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="U19" s="5"/>
+      <c r="V19" s="5"/>
+      <c r="W19" s="5"/>
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5"/>
+      <c r="Z19" s="5"/>
+      <c r="AA19" s="5"/>
+      <c r="AB19" s="5"/>
+      <c r="AC19" s="5"/>
+      <c r="AO19" s="7"/>
+      <c r="AP19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="7"/>
+      <c r="AS19" s="7"/>
+      <c r="AT19" s="7"/>
+      <c r="AU19" s="7"/>
+      <c r="AV19" s="7"/>
+      <c r="AW19" s="7"/>
+      <c r="BI19" s="5"/>
+      <c r="BJ19" s="5"/>
+      <c r="BK19" s="5"/>
+      <c r="BL19" s="5"/>
+      <c r="BM19" s="5"/>
+      <c r="BN19" s="5"/>
+      <c r="BO19" s="5"/>
+      <c r="BP19" s="5"/>
+      <c r="BQ19" s="5"/>
+      <c r="CC19" s="5"/>
+      <c r="CD19" s="5"/>
+      <c r="CE19" s="5"/>
+      <c r="CF19" s="5"/>
+      <c r="CG19" s="5"/>
+      <c r="CH19" s="5"/>
+      <c r="CI19" s="5"/>
+      <c r="CJ19" s="5"/>
+      <c r="CK19" s="5"/>
+      <c r="CW19" s="6"/>
+      <c r="CX19" s="6"/>
+      <c r="CY19" s="6"/>
+      <c r="CZ19" s="6"/>
+      <c r="DA19" s="6"/>
+      <c r="DB19" s="6"/>
+      <c r="DC19" s="6"/>
+      <c r="DD19" s="6"/>
+      <c r="DE19" s="6"/>
     </row>
     <row r="20" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="U20" s="2"/>
-      <c r="V20" s="2"/>
-      <c r="W20" s="2"/>
-      <c r="X20" s="2"/>
-      <c r="Y20" s="2"/>
-      <c r="Z20" s="2"/>
-      <c r="AA20" s="2"/>
-      <c r="AB20" s="2"/>
-      <c r="AC20" s="2"/>
-      <c r="AO20" s="4"/>
-      <c r="AP20" s="4"/>
-      <c r="AQ20" s="4"/>
-      <c r="AR20" s="4"/>
-      <c r="AS20" s="4"/>
-      <c r="AT20" s="4"/>
-      <c r="AU20" s="4"/>
-      <c r="AV20" s="4"/>
-      <c r="AW20" s="4"/>
-      <c r="BI20" s="2"/>
-      <c r="BJ20" s="2"/>
-      <c r="BK20" s="2"/>
-      <c r="BL20" s="2"/>
-      <c r="BM20" s="2"/>
-      <c r="BN20" s="2"/>
-      <c r="BO20" s="2"/>
-      <c r="BP20" s="2"/>
-      <c r="BQ20" s="2"/>
-      <c r="CC20" s="2"/>
-      <c r="CD20" s="2"/>
-      <c r="CE20" s="2"/>
-      <c r="CF20" s="2"/>
-      <c r="CG20" s="2"/>
-      <c r="CH20" s="2"/>
-      <c r="CI20" s="2"/>
-      <c r="CJ20" s="2"/>
-      <c r="CK20" s="2"/>
-      <c r="CW20" s="5"/>
-      <c r="CX20" s="5"/>
-      <c r="CY20" s="5"/>
-      <c r="CZ20" s="5"/>
-      <c r="DA20" s="5"/>
-      <c r="DB20" s="5"/>
-      <c r="DC20" s="5"/>
-      <c r="DD20" s="5"/>
-      <c r="DE20" s="5"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="U20" s="5"/>
+      <c r="V20" s="5"/>
+      <c r="W20" s="5"/>
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5"/>
+      <c r="Z20" s="5"/>
+      <c r="AA20" s="5"/>
+      <c r="AB20" s="5"/>
+      <c r="AC20" s="5"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="7"/>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="7"/>
+      <c r="AS20" s="7"/>
+      <c r="AT20" s="7"/>
+      <c r="AU20" s="7"/>
+      <c r="AV20" s="7"/>
+      <c r="AW20" s="7"/>
+      <c r="BI20" s="5"/>
+      <c r="BJ20" s="5"/>
+      <c r="BK20" s="5"/>
+      <c r="BL20" s="5"/>
+      <c r="BM20" s="5"/>
+      <c r="BN20" s="5"/>
+      <c r="BO20" s="5"/>
+      <c r="BP20" s="5"/>
+      <c r="BQ20" s="5"/>
+      <c r="CC20" s="5"/>
+      <c r="CD20" s="5"/>
+      <c r="CE20" s="5"/>
+      <c r="CF20" s="5"/>
+      <c r="CG20" s="5"/>
+      <c r="CH20" s="5"/>
+      <c r="CI20" s="5"/>
+      <c r="CJ20" s="5"/>
+      <c r="CK20" s="5"/>
+      <c r="CW20" s="6"/>
+      <c r="CX20" s="6"/>
+      <c r="CY20" s="6"/>
+      <c r="CZ20" s="6"/>
+      <c r="DA20" s="6"/>
+      <c r="DB20" s="6"/>
+      <c r="DC20" s="6"/>
+      <c r="DD20" s="6"/>
+      <c r="DE20" s="6"/>
     </row>
     <row r="21" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AB21" s="2"/>
-      <c r="AC21" s="2"/>
-      <c r="AO21" s="4"/>
-      <c r="AP21" s="4"/>
-      <c r="AQ21" s="4"/>
-      <c r="AR21" s="4"/>
-      <c r="AS21" s="4"/>
-      <c r="AT21" s="4"/>
-      <c r="AU21" s="4"/>
-      <c r="AV21" s="4"/>
-      <c r="AW21" s="4"/>
-      <c r="BI21" s="2"/>
-      <c r="BJ21" s="2"/>
-      <c r="BK21" s="2"/>
-      <c r="BL21" s="2"/>
-      <c r="BM21" s="2"/>
-      <c r="BN21" s="2"/>
-      <c r="BO21" s="2"/>
-      <c r="BP21" s="2"/>
-      <c r="BQ21" s="2"/>
-      <c r="CC21" s="2"/>
-      <c r="CD21" s="2"/>
-      <c r="CE21" s="2"/>
-      <c r="CF21" s="2"/>
-      <c r="CG21" s="2"/>
-      <c r="CH21" s="2"/>
-      <c r="CI21" s="2"/>
-      <c r="CJ21" s="2"/>
-      <c r="CK21" s="2"/>
-      <c r="CW21" s="5"/>
-      <c r="CX21" s="5"/>
-      <c r="CY21" s="5"/>
-      <c r="CZ21" s="5"/>
-      <c r="DA21" s="5"/>
-      <c r="DB21" s="5"/>
-      <c r="DC21" s="5"/>
-      <c r="DD21" s="5"/>
-      <c r="DE21" s="5"/>
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="U21" s="5"/>
+      <c r="V21" s="5"/>
+      <c r="W21" s="5"/>
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5"/>
+      <c r="Z21" s="5"/>
+      <c r="AA21" s="5"/>
+      <c r="AB21" s="5"/>
+      <c r="AC21" s="5"/>
+      <c r="AO21" s="7"/>
+      <c r="AP21" s="7"/>
+      <c r="AQ21" s="7"/>
+      <c r="AR21" s="7"/>
+      <c r="AS21" s="7"/>
+      <c r="AT21" s="7"/>
+      <c r="AU21" s="7"/>
+      <c r="AV21" s="7"/>
+      <c r="AW21" s="7"/>
+      <c r="BI21" s="5"/>
+      <c r="BJ21" s="5"/>
+      <c r="BK21" s="5"/>
+      <c r="BL21" s="5"/>
+      <c r="BM21" s="5"/>
+      <c r="BN21" s="5"/>
+      <c r="BO21" s="5"/>
+      <c r="BP21" s="5"/>
+      <c r="BQ21" s="5"/>
+      <c r="CC21" s="5"/>
+      <c r="CD21" s="5"/>
+      <c r="CE21" s="5"/>
+      <c r="CF21" s="5"/>
+      <c r="CG21" s="5"/>
+      <c r="CH21" s="5"/>
+      <c r="CI21" s="5"/>
+      <c r="CJ21" s="5"/>
+      <c r="CK21" s="5"/>
+      <c r="CW21" s="6"/>
+      <c r="CX21" s="6"/>
+      <c r="CY21" s="6"/>
+      <c r="CZ21" s="6"/>
+      <c r="DA21" s="6"/>
+      <c r="DB21" s="6"/>
+      <c r="DC21" s="6"/>
+      <c r="DD21" s="6"/>
+      <c r="DE21" s="6"/>
     </row>
     <row r="22" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="U22" s="2"/>
-      <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
-      <c r="X22" s="2"/>
-      <c r="Y22" s="2"/>
-      <c r="Z22" s="2"/>
-      <c r="AA22" s="2"/>
-      <c r="AB22" s="2"/>
-      <c r="AC22" s="2"/>
-      <c r="AO22" s="4"/>
-      <c r="AP22" s="4"/>
-      <c r="AQ22" s="4"/>
-      <c r="AR22" s="4"/>
-      <c r="AS22" s="4"/>
-      <c r="AT22" s="4"/>
-      <c r="AU22" s="4"/>
-      <c r="AV22" s="4"/>
-      <c r="AW22" s="4"/>
-      <c r="BI22" s="2"/>
-      <c r="BJ22" s="2"/>
-      <c r="BK22" s="2"/>
-      <c r="BL22" s="2"/>
-      <c r="BM22" s="2"/>
-      <c r="BN22" s="2"/>
-      <c r="BO22" s="2"/>
-      <c r="BP22" s="2"/>
-      <c r="BQ22" s="2"/>
-      <c r="CC22" s="2"/>
-      <c r="CD22" s="2"/>
-      <c r="CE22" s="2"/>
-      <c r="CF22" s="2"/>
-      <c r="CG22" s="2"/>
-      <c r="CH22" s="2"/>
-      <c r="CI22" s="2"/>
-      <c r="CJ22" s="2"/>
-      <c r="CK22" s="2"/>
-      <c r="CW22" s="5"/>
-      <c r="CX22" s="5"/>
-      <c r="CY22" s="5"/>
-      <c r="CZ22" s="5"/>
-      <c r="DA22" s="5"/>
-      <c r="DB22" s="5"/>
-      <c r="DC22" s="5"/>
-      <c r="DD22" s="5"/>
-      <c r="DE22" s="5"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="5"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="5"/>
+      <c r="U22" s="5"/>
+      <c r="V22" s="5"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5"/>
+      <c r="Z22" s="5"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="5"/>
+      <c r="AC22" s="5"/>
+      <c r="AO22" s="7"/>
+      <c r="AP22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="7"/>
+      <c r="AS22" s="7"/>
+      <c r="AT22" s="7"/>
+      <c r="AU22" s="7"/>
+      <c r="AV22" s="7"/>
+      <c r="AW22" s="7"/>
+      <c r="BI22" s="5"/>
+      <c r="BJ22" s="5"/>
+      <c r="BK22" s="5"/>
+      <c r="BL22" s="5"/>
+      <c r="BM22" s="5"/>
+      <c r="BN22" s="5"/>
+      <c r="BO22" s="5"/>
+      <c r="BP22" s="5"/>
+      <c r="BQ22" s="5"/>
+      <c r="CC22" s="5"/>
+      <c r="CD22" s="5"/>
+      <c r="CE22" s="5"/>
+      <c r="CF22" s="5"/>
+      <c r="CG22" s="5"/>
+      <c r="CH22" s="5"/>
+      <c r="CI22" s="5"/>
+      <c r="CJ22" s="5"/>
+      <c r="CK22" s="5"/>
+      <c r="CW22" s="6"/>
+      <c r="CX22" s="6"/>
+      <c r="CY22" s="6"/>
+      <c r="CZ22" s="6"/>
+      <c r="DA22" s="6"/>
+      <c r="DB22" s="6"/>
+      <c r="DC22" s="6"/>
+      <c r="DD22" s="6"/>
+      <c r="DE22" s="6"/>
     </row>
     <row r="23" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-      <c r="I23" s="7"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
     </row>
     <row r="24" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
     </row>
     <row r="25" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7"/>
-      <c r="AD25" s="6"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="AD25" s="2"/>
     </row>
     <row r="26" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
     </row>
     <row r="27" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
     </row>
     <row r="28" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
     </row>
     <row r="29" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
     </row>
     <row r="30" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-      <c r="I30" s="7"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
     </row>
     <row r="31" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
-      <c r="G31" s="7"/>
-      <c r="H31" s="7"/>
-      <c r="I31" s="7"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
     </row>
     <row r="32" spans="1:109" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="7"/>
-      <c r="H32" s="7"/>
-      <c r="I32" s="7"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
     </row>
     <row r="33" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="7"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="7"/>
-      <c r="G33" s="7"/>
-      <c r="H33" s="7"/>
-      <c r="I33" s="7"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
     </row>
     <row r="34" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="7"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="7"/>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
-      <c r="I34" s="7"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
     </row>
     <row r="35" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="7"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="7"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
     </row>
     <row r="36" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="7"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="7"/>
-      <c r="G36" s="7"/>
-      <c r="H36" s="7"/>
-      <c r="I36" s="7"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
     </row>
     <row r="37" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="7"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="7"/>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
-      <c r="I37" s="7"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
     </row>
     <row r="38" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="7"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="7"/>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
-      <c r="I38" s="7"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
     </row>
     <row r="39" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="7"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
-      <c r="I39" s="7"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
     </row>
     <row r="40" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="7"/>
-      <c r="I40" s="7"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
     </row>
     <row r="41" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="7"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="7"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
-      <c r="I41" s="7"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
     </row>
     <row r="42" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="N42" s="6"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="N42" s="2"/>
     </row>
     <row r="43" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
     </row>
     <row r="44" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="7"/>
-      <c r="E44" s="7"/>
-      <c r="F44" s="7"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="M44" s="6"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="M44" s="2"/>
     </row>
     <row r="45" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="CD45" s="6"/>
+      <c r="CD45" s="2"/>
     </row>
     <row r="47" spans="1:82" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Z47" s="6"/>
+      <c r="Z47" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A12:I22"/>
+    <mergeCell ref="U1:AC11"/>
+    <mergeCell ref="U12:AC22"/>
+    <mergeCell ref="AO1:AW11"/>
+    <mergeCell ref="AO12:AW22"/>
+    <mergeCell ref="A1:I11"/>
     <mergeCell ref="CW1:DE11"/>
     <mergeCell ref="CW12:DE22"/>
     <mergeCell ref="BI1:BQ11"/>
     <mergeCell ref="BI12:BQ22"/>
     <mergeCell ref="CC1:CK11"/>
     <mergeCell ref="CC12:CK22"/>
-    <mergeCell ref="A12:I22"/>
-    <mergeCell ref="U1:AC11"/>
-    <mergeCell ref="U12:AC22"/>
-    <mergeCell ref="AO1:AW11"/>
-    <mergeCell ref="AO12:AW22"/>
-    <mergeCell ref="A1:I11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
